--- a/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
+++ b/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
@@ -3020,7 +3020,7 @@
         <v>43</v>
       </c>
       <c r="Z13" s="3">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>43</v>
@@ -3282,7 +3282,7 @@
         <v>43</v>
       </c>
       <c r="Z15" s="3">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>43</v>
@@ -3675,7 +3675,7 @@
         <v>43</v>
       </c>
       <c r="Z18" s="3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>43</v>
@@ -4199,7 +4199,7 @@
         <v>43</v>
       </c>
       <c r="Z22" s="3">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>43</v>
@@ -4330,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="Z23" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>43</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="Z24" s="3">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>43</v>
@@ -4592,7 +4592,7 @@
         <v>43</v>
       </c>
       <c r="Z25" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="3" t="s">
         <v>43</v>
@@ -12321,7 +12321,7 @@
         <v>43</v>
       </c>
       <c r="Z84" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>43</v>
@@ -12452,7 +12452,7 @@
         <v>43</v>
       </c>
       <c r="Z85" s="3">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="AA85" s="3" t="s">
         <v>43</v>
@@ -12583,7 +12583,7 @@
         <v>43</v>
       </c>
       <c r="Z86" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>43</v>
@@ -12714,7 +12714,7 @@
         <v>43</v>
       </c>
       <c r="Z87" s="3">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="AA87" s="3" t="s">
         <v>43</v>
@@ -14548,7 +14548,7 @@
         <v>43</v>
       </c>
       <c r="Z101" s="3">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>43</v>
@@ -14810,7 +14810,7 @@
         <v>43</v>
       </c>
       <c r="Z103" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA103" s="3" t="s">
         <v>43</v>
@@ -14941,7 +14941,7 @@
         <v>43</v>
       </c>
       <c r="Z104" s="3">
-        <v>-128</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>43</v>
@@ -15072,7 +15072,7 @@
         <v>43</v>
       </c>
       <c r="Z105" s="3">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="3" t="s">
         <v>43</v>
@@ -15989,7 +15989,7 @@
         <v>43</v>
       </c>
       <c r="Z112" s="3">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>43</v>
@@ -16251,7 +16251,7 @@
         <v>43</v>
       </c>
       <c r="Z114" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA114" s="3" t="s">
         <v>43</v>
@@ -16513,7 +16513,7 @@
         <v>43</v>
       </c>
       <c r="Z116" s="3">
-        <v>-128</v>
+        <v>0</v>
       </c>
       <c r="AA116" s="3" t="s">
         <v>43</v>
@@ -16644,7 +16644,7 @@
         <v>43</v>
       </c>
       <c r="Z117" s="3">
-        <v>-102.3</v>
+        <v>0</v>
       </c>
       <c r="AA117" s="3" t="s">
         <v>43</v>

--- a/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
+++ b/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="333">
   <si>
     <t>Result</t>
   </si>
@@ -184,6 +184,9 @@
 7:&lt;=100%</t>
   </si>
   <si>
+    <t>Object probability of existence</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -199,6 +202,9 @@
 3:Predicted
 4:Deleted for merge
 5:New from merge</t>
+  </si>
+  <si>
+    <t>Object measurement status</t>
   </si>
   <si>
     <t>ADAS_ECU,ExternalUnit</t>
@@ -241,7 +247,13 @@
 31:Invalid</t>
   </si>
   <si>
+    <t>Object relative longitudinal acceleration standard deviation</t>
+  </si>
+  <si>
     <t>Obj_ArelLat_rms</t>
+  </si>
+  <si>
+    <t>Object relative lateral acceleration standard deviation</t>
   </si>
   <si>
     <t>Obj_VrelLong_rms</t>
@@ -281,7 +293,13 @@
 31:Invalid</t>
   </si>
   <si>
+    <t>Object relative longitudinal velocity standard deviation</t>
+  </si>
+  <si>
     <t>Obj_VrelLat_rms</t>
+  </si>
+  <si>
+    <t>Object relative lateral velocity standard deviation</t>
   </si>
   <si>
     <t>Obj_Orientation_rms</t>
@@ -321,6 +339,9 @@
 31:Invalid</t>
   </si>
   <si>
+    <t>Object orientation angle</t>
+  </si>
+  <si>
     <t>Obj_DistLong_rms</t>
   </si>
   <si>
@@ -358,10 +379,19 @@
 31:Invalid</t>
   </si>
   <si>
+    <t>Object longitudinal distance standard deviation</t>
+  </si>
+  <si>
     <t>Obj_DistLat_rms</t>
   </si>
   <si>
+    <t>Object lateral distance standard deviation</t>
+  </si>
+  <si>
     <t>Obj_ID_Quality</t>
+  </si>
+  <si>
+    <t>Object ID</t>
   </si>
   <si>
     <t>Obj_Class</t>
@@ -383,12 +413,18 @@
 7:Description for the value '0x7'</t>
   </si>
   <si>
+    <t>Object classification</t>
+  </si>
+  <si>
     <t>Obj_ArelLat</t>
   </si>
   <si>
     <t>m/s²</t>
   </si>
   <si>
+    <t>Object relative lateral acceleration</t>
+  </si>
+  <si>
     <t>Obj_ID_extended</t>
   </si>
   <si>
@@ -404,10 +440,19 @@
     <t>m</t>
   </si>
   <si>
+    <t>Object width</t>
+  </si>
+  <si>
     <t>Obj_Length</t>
   </si>
   <si>
+    <t>Object length</t>
+  </si>
+  <si>
     <t>Obj_ArelLong</t>
+  </si>
+  <si>
+    <t>Object relative longitudinal acceleration</t>
   </si>
   <si>
     <t>CollDetRegState_WarningLevel</t>
@@ -452,6 +497,9 @@
     <t>0x60E</t>
   </si>
   <si>
+    <t>Region bit field with collision detection</t>
+  </si>
+  <si>
     <t>Obj_ID</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
   </si>
   <si>
     <t>0x  8</t>
+  </si>
+  <si>
+    <t>Region bit field for control relay</t>
   </si>
   <si>
     <t>FilterState_Type</t>
@@ -529,6 +580,9 @@
   <si>
     <t>0:Invalid
 1:Valid</t>
+  </si>
+  <si>
+    <t>Allows changing the RCS_Threshold parameter</t>
   </si>
   <si>
     <t>RadarCfg_RCS_Threshold</t>
@@ -544,10 +598,19 @@
 7:Reserved</t>
   </si>
   <si>
+    <t>Standard or high sensitivity for cluster list output</t>
+  </si>
+  <si>
     <t>RadarCfg_StoreInNVM_valid</t>
   </si>
   <si>
+    <t>Allows changing the StoreInNvm parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_SortIndex_valid</t>
+  </si>
+  <si>
+    <t>Allows changing the SortIndex parameter</t>
   </si>
   <si>
     <t>RadarCfg_SortIndex</t>
@@ -558,6 +621,9 @@
 2:Sorted by RCS</t>
   </si>
   <si>
+    <t>Object sort index</t>
+  </si>
+  <si>
     <t>RadarCfg_StoreInNVM</t>
   </si>
   <si>
@@ -565,37 +631,73 @@
 1:Active</t>
   </si>
   <si>
+    <t>Store configuration in Nvm</t>
+  </si>
+  <si>
     <t>RadarCfg_SendExtInfo_valid</t>
   </si>
   <si>
+    <t>Allows changing the SendExtInfo parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_SendExtInfo</t>
   </si>
   <si>
+    <t>Enables output of extended message</t>
+  </si>
+  <si>
     <t>RadarCfg_CtrlRelay_valid</t>
   </si>
   <si>
+    <t>Allows changing the CtrlRelay parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_CtrlRelay</t>
   </si>
   <si>
+    <t>Enables output of CtrlRelay message if CollDet is active</t>
+  </si>
+  <si>
     <t>RadarCfg_SendQuality_valid</t>
   </si>
   <si>
+    <t>Allows changing the SendQuality parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_SendQuality</t>
   </si>
   <si>
+    <t>Enables output of quality message</t>
+  </si>
+  <si>
     <t>RadarCfg_MaxDistance_valid</t>
   </si>
   <si>
+    <t>Allows changing the MaxDistance parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_RadarPower_valid</t>
   </si>
   <si>
+    <t>Allows changing the RadarPower parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_OutputType_valid</t>
   </si>
   <si>
+    <t>Allows changing the OutputType parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_SensorID_valid</t>
   </si>
   <si>
+    <t>Allows changing the SensorId parameter</t>
+  </si>
+  <si>
     <t>RadarCfg_MaxDistance</t>
+  </si>
+  <si>
+    <t>Maximum distance of far scan</t>
   </si>
   <si>
     <t>RadarCfg_RadarPower</t>
@@ -611,6 +713,9 @@
 7:Reserved</t>
   </si>
   <si>
+    <t>Radar Tx output power reduction (Tx attenuation)</t>
+  </si>
+  <si>
     <t>RadarCfg_OutputType</t>
   </si>
   <si>
@@ -620,7 +725,13 @@
 3:reserved 2</t>
   </si>
   <si>
+    <t>Data output type</t>
+  </si>
+  <si>
     <t>RadarCfg_SensorID</t>
+  </si>
+  <si>
+    <t>Sensor ID (0 to 7)</t>
   </si>
   <si>
     <t>RadarState_Voltage_Error</t>
@@ -655,16 +766,31 @@
     <t>RadarState_SortIndex</t>
   </si>
   <si>
+    <t>Current sorting of object list</t>
+  </si>
+  <si>
     <t>RadarState_RCS_Threshold</t>
   </si>
   <si>
+    <t>Current sensitivity mode</t>
+  </si>
+  <si>
     <t>RadarState_CtrlRelayCfg</t>
   </si>
   <si>
+    <t>Status of control relay message output</t>
+  </si>
+  <si>
     <t>RadarState_SendQualityCfg</t>
   </si>
   <si>
+    <t>Status of quality information output</t>
+  </si>
+  <si>
     <t>RadarState_SendExtInfoCfg</t>
+  </si>
+  <si>
+    <t>Status of extended information output</t>
   </si>
   <si>
     <t>RadarState_MotionRxState</t>
@@ -676,13 +802,22 @@
 3:Speed and yaw rate missing</t>
   </si>
   <si>
+    <t>Status of motion input signals</t>
+  </si>
+  <si>
     <t>RadarState_SensorID</t>
   </si>
   <si>
     <t>RadarState_OutputTypeCfg</t>
   </si>
   <si>
+    <t>Current output list type</t>
+  </si>
+  <si>
     <t>RadarState_RadarPowerCfg</t>
+  </si>
+  <si>
+    <t>Radar Tx output level (Tx attenuation)</t>
   </si>
   <si>
     <t>RadarState_NVMReadStatus</t>
@@ -692,6 +827,9 @@
 1:successful</t>
   </si>
   <si>
+    <t>Gives the status of reading the radar configuration from EEPROM</t>
+  </si>
+  <si>
     <t>RadarState_NVMwriteStatus</t>
   </si>
   <si>
@@ -699,9 +837,15 @@
 1:successful</t>
   </si>
   <si>
+    <t>Gives the status of writing the radar configuration from EEPROM</t>
+  </si>
+  <si>
     <t>RadarState_MaxDistanceCfg</t>
   </si>
   <si>
+    <t>Currently configured maximum distance of far scan</t>
+  </si>
+  <si>
     <t>RadarDevice_Speed</t>
   </si>
   <si>
@@ -712,6 +856,9 @@
   </si>
   <si>
     <t>m/s</t>
+  </si>
+  <si>
+    <t>Speed of the radar unit</t>
   </si>
   <si>
     <t>RadarDevice_SpeedDirection</t>
@@ -723,6 +870,9 @@
 3:reserved</t>
   </si>
   <si>
+    <t>Speed direction of the radar unit</t>
+  </si>
+  <si>
     <t>RadarDevice_YawRate</t>
   </si>
   <si>
@@ -733,6 +883,9 @@
   </si>
   <si>
     <t>°/s</t>
+  </si>
+  <si>
+    <t>Yaw rate of the radar unit</t>
   </si>
   <si>
     <t>CollDetCfg_ClearRegions</t>
@@ -821,15 +974,27 @@
     <t>0x600</t>
   </si>
   <si>
+    <t>Measurement counter</t>
+  </si>
+  <si>
     <t>Cluster_NofClustersNear</t>
   </si>
   <si>
+    <t>Number of valid Clusters in near range scan</t>
+  </si>
+  <si>
     <t>Cluster_NofClustersFar</t>
   </si>
   <si>
+    <t>Number of valid Clusters in far range scan</t>
+  </si>
+  <si>
     <t>Cluster_InterfaceVersion</t>
   </si>
   <si>
+    <t>Cluster CAN Interface Version Number</t>
+  </si>
+  <si>
     <t>Obj_NofObjects</t>
   </si>
   <si>
@@ -842,10 +1007,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>Number of Objects sent</t>
+  </si>
+  <si>
     <t>Obj_MeasCounter</t>
   </si>
   <si>
+    <t>Measurement Counter</t>
+  </si>
+  <si>
     <t>Obj_InterfaceVersion</t>
+  </si>
+  <si>
+    <t>Object CAN Interface Version Number</t>
   </si>
   <si>
     <t>Obj_DynProp</t>
@@ -867,22 +1041,40 @@
 7:Stopped</t>
   </si>
   <si>
+    <t>Object dynamic property</t>
+  </si>
+  <si>
     <t>Obj_RCS</t>
   </si>
   <si>
     <t>dBm²</t>
   </si>
   <si>
+    <t>Object RCS value (radar cross section)</t>
+  </si>
+  <si>
     <t>Obj_VrelLat</t>
   </si>
   <si>
+    <t>Object relative lateral velocity</t>
+  </si>
+  <si>
     <t>Obj_DistLong</t>
   </si>
   <si>
+    <t>Object longitudinal displacement</t>
+  </si>
+  <si>
     <t>Obj_VrelLong</t>
   </si>
   <si>
+    <t>Object relative longitudinal velocity</t>
+  </si>
+  <si>
     <t>Obj_DistLat</t>
+  </si>
+  <si>
+    <t>Object lateral displacement</t>
   </si>
   <si>
     <t>Version_ExtendedRange</t>
@@ -908,12 +1100,21 @@
     <t>Version_MajorRelease</t>
   </si>
   <si>
+    <t>Major Release Number</t>
+  </si>
+  <si>
     <t>Version_MinorRelease</t>
   </si>
   <si>
+    <t>Minor Release Number</t>
+  </si>
+  <si>
     <t>Version_PatchLevel</t>
   </si>
   <si>
+    <t>Patch Level</t>
+  </si>
+  <si>
     <t>Cluster_DynProp</t>
   </si>
   <si>
@@ -923,24 +1124,45 @@
     <t>0x701</t>
   </si>
   <si>
+    <t>Cluster dynamic property</t>
+  </si>
+  <si>
     <t>Cluster_VrelLat</t>
   </si>
   <si>
+    <t>Cluster relative lateral velocity</t>
+  </si>
+  <si>
     <t>Cluster_RCS</t>
   </si>
   <si>
+    <t>Cluster RCS value (Radar cross section)</t>
+  </si>
+  <si>
     <t>Cluster_DistLong</t>
   </si>
   <si>
+    <t>Cluster longitudinal distance</t>
+  </si>
+  <si>
     <t>Cluster_ID</t>
   </si>
   <si>
+    <t>Cluster number</t>
+  </si>
+  <si>
     <t>Cluster_VrelLong</t>
   </si>
   <si>
+    <t>Cluster relative longitudinal velocity</t>
+  </si>
+  <si>
     <t>Cluster_DistLat</t>
   </si>
   <si>
+    <t>Cluster lateral distance</t>
+  </si>
+  <si>
     <t>Cluster_2_Quality</t>
   </si>
   <si>
@@ -948,6 +1170,9 @@
   </si>
   <si>
     <t>Cluster_VrelLat_rms</t>
+  </si>
+  <si>
+    <t>Cluster relative lateral velocity standard deviation</t>
   </si>
   <si>
     <t>Cluster_InvalidState</t>
@@ -973,16 +1198,31 @@
 17:Valid suspicious angle</t>
   </si>
   <si>
+    <t>Cluster invalid state</t>
+  </si>
+  <si>
     <t>Cluster_DistLat_rms</t>
   </si>
   <si>
+    <t>Cluster lateral distance standard deviation</t>
+  </si>
+  <si>
     <t>Cluster_DistLong_rms</t>
   </si>
   <si>
+    <t>Cluster longitudinal distance standard deviation</t>
+  </si>
+  <si>
     <t>Cluster_VrelLong_rms</t>
   </si>
   <si>
+    <t>Cluster relative longitudinal velocity standard deviation</t>
+  </si>
+  <si>
     <t>Cluster_PdH0</t>
+  </si>
+  <si>
+    <t>Cluster false alarm probability</t>
   </si>
   <si>
     <t>Cluster_AmbigState</t>
@@ -993,6 +1233,9 @@
 2:Staggered ramp
 3:Unambiguous
 4:Stationary candidate</t>
+  </si>
+  <si>
+    <t>Cluster Doppler ambiguity status</t>
   </si>
 </sst>
 </file>
@@ -1621,16 +1864,16 @@
         <v>43</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1647,7 +1890,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>43</v>
@@ -1740,7 +1983,7 @@
         <v>43</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK3" s="3" t="s">
         <v>43</v>
@@ -1752,16 +1995,16 @@
         <v>43</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1775,10 +2018,10 @@
         <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>43</v>
@@ -1871,7 +2114,7 @@
         <v>43</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>43</v>
@@ -1883,16 +2126,16 @@
         <v>43</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1906,10 +2149,10 @@
         <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>43</v>
@@ -2002,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>43</v>
@@ -2014,16 +2257,16 @@
         <v>43</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2037,10 +2280,10 @@
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>43</v>
@@ -2133,7 +2376,7 @@
         <v>43</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>43</v>
@@ -2145,16 +2388,16 @@
         <v>43</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2168,10 +2411,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -2264,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>43</v>
@@ -2276,16 +2519,16 @@
         <v>43</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2302,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>43</v>
@@ -2395,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>43</v>
@@ -2407,16 +2650,16 @@
         <v>43</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2430,10 +2673,10 @@
         <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>43</v>
@@ -2526,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>43</v>
@@ -2538,16 +2781,16 @@
         <v>43</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2561,10 +2804,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>43</v>
@@ -2657,7 +2900,7 @@
         <v>43</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AK10" s="3" t="s">
         <v>43</v>
@@ -2669,16 +2912,16 @@
         <v>43</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2692,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>43</v>
@@ -2800,16 +3043,16 @@
         <v>43</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2823,10 +3066,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>43</v>
@@ -2838,10 +3081,10 @@
         <v>43</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>43</v>
@@ -2919,7 +3162,7 @@
         <v>43</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>43</v>
@@ -2931,16 +3174,16 @@
         <v>43</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2957,7 +3200,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>43</v>
@@ -2969,10 +3212,10 @@
         <v>43</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>43</v>
@@ -3047,7 +3290,7 @@
         <v>2.61</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>43</v>
@@ -3062,16 +3305,16 @@
         <v>43</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -3085,10 +3328,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
@@ -3100,10 +3343,10 @@
         <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>43</v>
@@ -3193,16 +3436,16 @@
         <v>43</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3219,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>43</v>
@@ -3231,10 +3474,10 @@
         <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>43</v>
@@ -3309,7 +3552,7 @@
         <v>229.2</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AJ15" s="3" t="s">
         <v>43</v>
@@ -3324,16 +3567,16 @@
         <v>43</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3350,7 +3593,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>43</v>
@@ -3362,10 +3605,10 @@
         <v>43</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>43</v>
@@ -3440,7 +3683,7 @@
         <v>51</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ16" s="3" t="s">
         <v>43</v>
@@ -3455,16 +3698,16 @@
         <v>43</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3481,22 +3724,22 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>43</v>
@@ -3571,7 +3814,7 @@
         <v>51</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ17" s="3" t="s">
         <v>43</v>
@@ -3586,16 +3829,16 @@
         <v>43</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3612,22 +3855,22 @@
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>43</v>
@@ -3702,7 +3945,7 @@
         <v>10.47</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AJ18" s="3" t="s">
         <v>43</v>
@@ -3717,16 +3960,16 @@
         <v>43</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3743,7 +3986,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>43</v>
@@ -3755,10 +3998,10 @@
         <v>43</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>43</v>
@@ -3836,7 +4079,7 @@
         <v>43</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>43</v>
@@ -3851,13 +4094,13 @@
         <v>43</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3874,7 +4117,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>43</v>
@@ -3886,10 +4129,10 @@
         <v>43</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>43</v>
@@ -3982,13 +4225,13 @@
         <v>43</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -4005,7 +4248,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
@@ -4017,10 +4260,10 @@
         <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>43</v>
@@ -4113,13 +4356,13 @@
         <v>43</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -4136,7 +4379,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>43</v>
@@ -4148,10 +4391,10 @@
         <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>43</v>
@@ -4226,7 +4469,7 @@
         <v>204.8</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>43</v>
@@ -4244,13 +4487,13 @@
         <v>43</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4267,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>43</v>
@@ -4279,10 +4522,10 @@
         <v>43</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>43</v>
@@ -4357,7 +4600,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ23" s="3" t="s">
         <v>43</v>
@@ -4375,13 +4618,13 @@
         <v>43</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4398,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>43</v>
@@ -4410,10 +4653,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>43</v>
@@ -4488,7 +4731,7 @@
         <v>204.8</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ24" s="3" t="s">
         <v>43</v>
@@ -4506,13 +4749,13 @@
         <v>43</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4529,7 +4772,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>43</v>
@@ -4541,10 +4784,10 @@
         <v>43</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>43</v>
@@ -4619,7 +4862,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ25" s="3" t="s">
         <v>43</v>
@@ -4637,13 +4880,13 @@
         <v>43</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4660,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>43</v>
@@ -4672,10 +4915,10 @@
         <v>43</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>43</v>
@@ -4765,16 +5008,16 @@
         <v>43</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4791,7 +5034,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>43</v>
@@ -4803,10 +5046,10 @@
         <v>43</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>43</v>
@@ -4896,16 +5139,16 @@
         <v>43</v>
       </c>
       <c r="AN27" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ27" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4922,7 +5165,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>43</v>
@@ -4934,10 +5177,10 @@
         <v>43</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>43</v>
@@ -5027,16 +5270,16 @@
         <v>43</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -5053,7 +5296,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>43</v>
@@ -5065,10 +5308,10 @@
         <v>43</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>43</v>
@@ -5146,7 +5389,7 @@
         <v>43</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>43</v>
@@ -5161,13 +5404,13 @@
         <v>43</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -5184,7 +5427,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>43</v>
@@ -5196,10 +5439,10 @@
         <v>43</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>43</v>
@@ -5277,7 +5520,7 @@
         <v>43</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK30" s="3" t="s">
         <v>43</v>
@@ -5292,13 +5535,13 @@
         <v>43</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5315,7 +5558,7 @@
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>43</v>
@@ -5327,10 +5570,10 @@
         <v>43</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>43</v>
@@ -5423,13 +5666,13 @@
         <v>43</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5446,7 +5689,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>43</v>
@@ -5458,10 +5701,10 @@
         <v>43</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>43</v>
@@ -5554,13 +5797,13 @@
         <v>43</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5577,7 +5820,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>43</v>
@@ -5589,10 +5832,10 @@
         <v>43</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>43</v>
@@ -5670,7 +5913,7 @@
         <v>43</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AK33" s="2" t="s">
         <v>43</v>
@@ -5685,13 +5928,13 @@
         <v>43</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5708,7 +5951,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>43</v>
@@ -5720,10 +5963,10 @@
         <v>43</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>43</v>
@@ -5801,7 +6044,7 @@
         <v>43</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>43</v>
@@ -5816,13 +6059,13 @@
         <v>43</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5839,7 +6082,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>43</v>
@@ -5851,10 +6094,10 @@
         <v>43</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>43</v>
@@ -5932,7 +6175,7 @@
         <v>43</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK35" s="3" t="s">
         <v>43</v>
@@ -5947,13 +6190,13 @@
         <v>43</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5967,10 +6210,10 @@
         <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>43</v>
@@ -5982,10 +6225,10 @@
         <v>43</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>43</v>
@@ -6063,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK36" s="2" t="s">
         <v>43</v>
@@ -6075,16 +6318,16 @@
         <v>43</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -6098,10 +6341,10 @@
         <v>41</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>43</v>
@@ -6113,10 +6356,10 @@
         <v>43</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>43</v>
@@ -6194,7 +6437,7 @@
         <v>43</v>
       </c>
       <c r="AJ37" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AK37" s="3" t="s">
         <v>43</v>
@@ -6206,16 +6449,16 @@
         <v>43</v>
       </c>
       <c r="AN37" s="3" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AO37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -6229,10 +6472,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>43</v>
@@ -6244,10 +6487,10 @@
         <v>43</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>43</v>
@@ -6325,7 +6568,7 @@
         <v>43</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>43</v>
@@ -6337,16 +6580,16 @@
         <v>43</v>
       </c>
       <c r="AN38" s="3" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="AO38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6360,10 +6603,10 @@
         <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>43</v>
@@ -6375,10 +6618,10 @@
         <v>43</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>43</v>
@@ -6456,7 +6699,7 @@
         <v>43</v>
       </c>
       <c r="AJ39" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>43</v>
@@ -6468,16 +6711,16 @@
         <v>43</v>
       </c>
       <c r="AN39" s="3" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AO39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -6491,10 +6734,10 @@
         <v>41</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>43</v>
@@ -6506,10 +6749,10 @@
         <v>43</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>43</v>
@@ -6587,7 +6830,7 @@
         <v>43</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AK40" s="3" t="s">
         <v>43</v>
@@ -6599,16 +6842,16 @@
         <v>43</v>
       </c>
       <c r="AN40" s="3" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="AO40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6625,7 +6868,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>43</v>
@@ -6637,10 +6880,10 @@
         <v>43</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>43</v>
@@ -6718,7 +6961,7 @@
         <v>43</v>
       </c>
       <c r="AJ41" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK41" s="3" t="s">
         <v>43</v>
@@ -6730,16 +6973,16 @@
         <v>43</v>
       </c>
       <c r="AN41" s="3" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6756,7 +6999,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>43</v>
@@ -6768,10 +7011,10 @@
         <v>43</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>43</v>
@@ -6849,7 +7092,7 @@
         <v>43</v>
       </c>
       <c r="AJ42" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK42" s="3" t="s">
         <v>43</v>
@@ -6861,16 +7104,16 @@
         <v>43</v>
       </c>
       <c r="AN42" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="AO42" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ42" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6887,7 +7130,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>43</v>
@@ -6899,10 +7142,10 @@
         <v>43</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>43</v>
@@ -6980,7 +7223,7 @@
         <v>43</v>
       </c>
       <c r="AJ43" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK43" s="3" t="s">
         <v>43</v>
@@ -6992,16 +7235,16 @@
         <v>43</v>
       </c>
       <c r="AN43" s="3" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="AO43" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ43" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -7018,7 +7261,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>43</v>
@@ -7030,10 +7273,10 @@
         <v>43</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>43</v>
@@ -7111,7 +7354,7 @@
         <v>43</v>
       </c>
       <c r="AJ44" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK44" s="3" t="s">
         <v>43</v>
@@ -7123,16 +7366,16 @@
         <v>43</v>
       </c>
       <c r="AN44" s="3" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="AO44" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP44" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ44" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -7149,7 +7392,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>43</v>
@@ -7161,10 +7404,10 @@
         <v>43</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>43</v>
@@ -7242,7 +7485,7 @@
         <v>43</v>
       </c>
       <c r="AJ45" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK45" s="3" t="s">
         <v>43</v>
@@ -7254,16 +7497,16 @@
         <v>43</v>
       </c>
       <c r="AN45" s="3" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="AO45" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ45" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -7280,7 +7523,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>43</v>
@@ -7292,10 +7535,10 @@
         <v>43</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>43</v>
@@ -7373,7 +7616,7 @@
         <v>43</v>
       </c>
       <c r="AJ46" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK46" s="3" t="s">
         <v>43</v>
@@ -7385,16 +7628,16 @@
         <v>43</v>
       </c>
       <c r="AN46" s="3" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="AO46" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ46" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -7411,7 +7654,7 @@
         <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>43</v>
@@ -7423,10 +7666,10 @@
         <v>43</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>43</v>
@@ -7504,7 +7747,7 @@
         <v>43</v>
       </c>
       <c r="AJ47" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK47" s="3" t="s">
         <v>43</v>
@@ -7516,16 +7759,16 @@
         <v>43</v>
       </c>
       <c r="AN47" s="3" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="AO47" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ47" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:43">
@@ -7542,22 +7785,22 @@
         <v>42</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="J48" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>43</v>
@@ -7635,7 +7878,7 @@
         <v>43</v>
       </c>
       <c r="AJ48" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK48" s="3" t="s">
         <v>43</v>
@@ -7647,16 +7890,16 @@
         <v>43</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ48" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7673,22 +7916,22 @@
         <v>42</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>43</v>
@@ -7766,7 +8009,7 @@
         <v>43</v>
       </c>
       <c r="AJ49" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK49" s="3" t="s">
         <v>43</v>
@@ -7778,16 +8021,16 @@
         <v>43</v>
       </c>
       <c r="AN49" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AO49" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ49" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7804,7 +8047,7 @@
         <v>42</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>43</v>
@@ -7816,10 +8059,10 @@
         <v>43</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>43</v>
@@ -7897,7 +8140,7 @@
         <v>43</v>
       </c>
       <c r="AJ50" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK50" s="3" t="s">
         <v>43</v>
@@ -7909,16 +8152,16 @@
         <v>43</v>
       </c>
       <c r="AN50" s="3" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="AO50" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP50" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ50" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:43">
@@ -7935,7 +8178,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>43</v>
@@ -7947,10 +8190,10 @@
         <v>43</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>43</v>
@@ -8028,7 +8271,7 @@
         <v>43</v>
       </c>
       <c r="AJ51" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK51" s="3" t="s">
         <v>43</v>
@@ -8040,16 +8283,16 @@
         <v>43</v>
       </c>
       <c r="AN51" s="3" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AO51" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP51" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ51" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -8066,7 +8309,7 @@
         <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>43</v>
@@ -8078,10 +8321,10 @@
         <v>43</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>43</v>
@@ -8156,7 +8399,7 @@
         <v>2046</v>
       </c>
       <c r="AI52" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ52" s="3" t="s">
         <v>43</v>
@@ -8171,16 +8414,16 @@
         <v>43</v>
       </c>
       <c r="AN52" s="3" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="AO52" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -8197,7 +8440,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>43</v>
@@ -8209,10 +8452,10 @@
         <v>43</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>43</v>
@@ -8290,7 +8533,7 @@
         <v>43</v>
       </c>
       <c r="AJ53" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AK53" s="3" t="s">
         <v>43</v>
@@ -8302,16 +8545,16 @@
         <v>43</v>
       </c>
       <c r="AN53" s="3" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="AO53" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP53" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ53" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -8328,7 +8571,7 @@
         <v>42</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>43</v>
@@ -8340,10 +8583,10 @@
         <v>43</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>43</v>
@@ -8421,7 +8664,7 @@
         <v>43</v>
       </c>
       <c r="AJ54" s="3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AK54" s="3" t="s">
         <v>43</v>
@@ -8433,16 +8676,16 @@
         <v>43</v>
       </c>
       <c r="AN54" s="3" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="AO54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ54" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -8459,7 +8702,7 @@
         <v>42</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>43</v>
@@ -8471,10 +8714,10 @@
         <v>43</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>43</v>
@@ -8564,16 +8807,16 @@
         <v>43</v>
       </c>
       <c r="AN55" s="3" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="AO55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8587,10 +8830,10 @@
         <v>42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>43</v>
@@ -8602,10 +8845,10 @@
         <v>43</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>43</v>
@@ -8683,7 +8926,7 @@
         <v>43</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AK56" s="2" t="s">
         <v>43</v>
@@ -8698,13 +8941,13 @@
         <v>43</v>
       </c>
       <c r="AO56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8718,10 +8961,10 @@
         <v>42</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>43</v>
@@ -8733,10 +8976,10 @@
         <v>43</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>43</v>
@@ -8814,7 +9057,7 @@
         <v>43</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AK57" s="3" t="s">
         <v>43</v>
@@ -8829,13 +9072,13 @@
         <v>43</v>
       </c>
       <c r="AO57" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP57" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ57" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -8849,10 +9092,10 @@
         <v>42</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>43</v>
@@ -8864,10 +9107,10 @@
         <v>43</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>43</v>
@@ -8945,7 +9188,7 @@
         <v>43</v>
       </c>
       <c r="AJ58" s="3" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AK58" s="3" t="s">
         <v>43</v>
@@ -8960,13 +9203,13 @@
         <v>43</v>
       </c>
       <c r="AO58" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP58" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ58" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -8980,10 +9223,10 @@
         <v>42</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>43</v>
@@ -8995,10 +9238,10 @@
         <v>43</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>43</v>
@@ -9076,7 +9319,7 @@
         <v>43</v>
       </c>
       <c r="AJ59" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AK59" s="3" t="s">
         <v>43</v>
@@ -9091,13 +9334,13 @@
         <v>43</v>
       </c>
       <c r="AO59" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP59" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ59" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -9111,10 +9354,10 @@
         <v>42</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>43</v>
@@ -9126,10 +9369,10 @@
         <v>43</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>43</v>
@@ -9207,7 +9450,7 @@
         <v>43</v>
       </c>
       <c r="AJ60" s="3" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AK60" s="3" t="s">
         <v>43</v>
@@ -9222,13 +9465,13 @@
         <v>43</v>
       </c>
       <c r="AO60" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP60" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ60" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -9242,10 +9485,10 @@
         <v>42</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>43</v>
@@ -9257,10 +9500,10 @@
         <v>43</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>43</v>
@@ -9350,16 +9593,16 @@
         <v>43</v>
       </c>
       <c r="AN61" s="3" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="AO61" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP61" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ61" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -9373,10 +9616,10 @@
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>43</v>
@@ -9388,10 +9631,10 @@
         <v>43</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>43</v>
@@ -9469,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="AJ62" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AK62" s="3" t="s">
         <v>43</v>
@@ -9481,16 +9724,16 @@
         <v>43</v>
       </c>
       <c r="AN62" s="3" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP62" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -9507,7 +9750,7 @@
         <v>41</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>43</v>
@@ -9519,10 +9762,10 @@
         <v>43</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>43</v>
@@ -9600,7 +9843,7 @@
         <v>43</v>
       </c>
       <c r="AJ63" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK63" s="3" t="s">
         <v>43</v>
@@ -9612,16 +9855,16 @@
         <v>43</v>
       </c>
       <c r="AN63" s="3" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ63" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -9638,7 +9881,7 @@
         <v>41</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>43</v>
@@ -9650,10 +9893,10 @@
         <v>43</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>43</v>
@@ -9731,7 +9974,7 @@
         <v>43</v>
       </c>
       <c r="AJ64" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK64" s="3" t="s">
         <v>43</v>
@@ -9743,16 +9986,16 @@
         <v>43</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ64" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -9769,7 +10012,7 @@
         <v>41</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>43</v>
@@ -9781,10 +10024,10 @@
         <v>43</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>43</v>
@@ -9862,7 +10105,7 @@
         <v>43</v>
       </c>
       <c r="AJ65" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK65" s="3" t="s">
         <v>43</v>
@@ -9874,16 +10117,16 @@
         <v>43</v>
       </c>
       <c r="AN65" s="3" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="AO65" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP65" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ65" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -9900,7 +10143,7 @@
         <v>41</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>43</v>
@@ -9912,10 +10155,10 @@
         <v>43</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>43</v>
@@ -9993,7 +10236,7 @@
         <v>43</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="AK66" s="3" t="s">
         <v>43</v>
@@ -10005,16 +10248,16 @@
         <v>43</v>
       </c>
       <c r="AN66" s="3" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="AO66" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ66" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -10031,7 +10274,7 @@
         <v>41</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>43</v>
@@ -10043,10 +10286,10 @@
         <v>43</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>43</v>
@@ -10136,16 +10379,16 @@
         <v>43</v>
       </c>
       <c r="AN67" s="3" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP67" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ67" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -10162,7 +10405,7 @@
         <v>41</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>43</v>
@@ -10174,10 +10417,10 @@
         <v>43</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>43</v>
@@ -10255,7 +10498,7 @@
         <v>43</v>
       </c>
       <c r="AJ68" s="3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AK68" s="3" t="s">
         <v>43</v>
@@ -10267,16 +10510,16 @@
         <v>43</v>
       </c>
       <c r="AN68" s="3" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="AO68" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP68" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ68" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -10293,7 +10536,7 @@
         <v>41</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>43</v>
@@ -10305,10 +10548,10 @@
         <v>43</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>43</v>
@@ -10386,7 +10629,7 @@
         <v>43</v>
       </c>
       <c r="AJ69" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AK69" s="3" t="s">
         <v>43</v>
@@ -10398,16 +10641,16 @@
         <v>43</v>
       </c>
       <c r="AN69" s="3" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="AO69" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP69" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ69" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -10424,7 +10667,7 @@
         <v>41</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>43</v>
@@ -10436,10 +10679,10 @@
         <v>43</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>43</v>
@@ -10517,7 +10760,7 @@
         <v>43</v>
       </c>
       <c r="AJ70" s="3" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="AK70" s="3" t="s">
         <v>43</v>
@@ -10529,16 +10772,16 @@
         <v>43</v>
       </c>
       <c r="AN70" s="3" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="AO70" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP70" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ70" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -10555,7 +10798,7 @@
         <v>41</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>43</v>
@@ -10567,10 +10810,10 @@
         <v>43</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>43</v>
@@ -10648,7 +10891,7 @@
         <v>43</v>
       </c>
       <c r="AJ71" s="3" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="AK71" s="3" t="s">
         <v>43</v>
@@ -10660,16 +10903,16 @@
         <v>43</v>
       </c>
       <c r="AN71" s="3" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="AO71" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP71" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ71" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -10686,7 +10929,7 @@
         <v>41</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>43</v>
@@ -10698,10 +10941,10 @@
         <v>43</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>43</v>
@@ -10791,16 +11034,16 @@
         <v>43</v>
       </c>
       <c r="AN72" s="3" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="AO72" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP72" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ72" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -10817,7 +11060,7 @@
         <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>43</v>
@@ -10829,10 +11072,10 @@
         <v>43</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>43</v>
@@ -10907,7 +11150,7 @@
         <v>163.8</v>
       </c>
       <c r="AI73" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ73" s="2" t="s">
         <v>43</v>
@@ -10922,16 +11165,16 @@
         <v>43</v>
       </c>
       <c r="AN73" s="2" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="AO73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:43">
@@ -10948,7 +11191,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>43</v>
@@ -10960,10 +11203,10 @@
         <v>43</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>43</v>
@@ -11041,7 +11284,7 @@
         <v>43</v>
       </c>
       <c r="AJ74" s="3" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="AK74" s="3" t="s">
         <v>43</v>
@@ -11053,16 +11296,16 @@
         <v>43</v>
       </c>
       <c r="AN74" s="3" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AO74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ74" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:43">
@@ -11079,7 +11322,7 @@
         <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>43</v>
@@ -11091,10 +11334,10 @@
         <v>43</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>43</v>
@@ -11169,7 +11412,7 @@
         <v>327.66</v>
       </c>
       <c r="AI75" s="2" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="AJ75" s="2" t="s">
         <v>43</v>
@@ -11184,16 +11427,16 @@
         <v>43</v>
       </c>
       <c r="AN75" s="2" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="AO75" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP75" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ75" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -11210,7 +11453,7 @@
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>43</v>
@@ -11222,10 +11465,10 @@
         <v>43</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>43</v>
@@ -11303,7 +11546,7 @@
         <v>43</v>
       </c>
       <c r="AJ76" s="2" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="AK76" s="2" t="s">
         <v>43</v>
@@ -11318,13 +11561,13 @@
         <v>43</v>
       </c>
       <c r="AO76" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP76" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ76" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:43">
@@ -11341,7 +11584,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>43</v>
@@ -11353,10 +11596,10 @@
         <v>43</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>43</v>
@@ -11434,7 +11677,7 @@
         <v>43</v>
       </c>
       <c r="AJ77" s="3" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="AK77" s="3" t="s">
         <v>43</v>
@@ -11449,13 +11692,13 @@
         <v>43</v>
       </c>
       <c r="AO77" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP77" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ77" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -11472,7 +11715,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>43</v>
@@ -11484,10 +11727,10 @@
         <v>43</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>43</v>
@@ -11565,7 +11808,7 @@
         <v>43</v>
       </c>
       <c r="AJ78" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK78" s="3" t="s">
         <v>43</v>
@@ -11580,13 +11823,13 @@
         <v>43</v>
       </c>
       <c r="AO78" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP78" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ78" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:43">
@@ -11603,7 +11846,7 @@
         <v>42</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>43</v>
@@ -11615,10 +11858,10 @@
         <v>43</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>43</v>
@@ -11696,7 +11939,7 @@
         <v>43</v>
       </c>
       <c r="AJ79" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK79" s="3" t="s">
         <v>43</v>
@@ -11711,13 +11954,13 @@
         <v>43</v>
       </c>
       <c r="AO79" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP79" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ79" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:43">
@@ -11734,7 +11977,7 @@
         <v>42</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>43</v>
@@ -11746,10 +11989,10 @@
         <v>43</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>43</v>
@@ -11824,7 +12067,7 @@
         <v>25.5</v>
       </c>
       <c r="AI80" s="3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="AJ80" s="3" t="s">
         <v>43</v>
@@ -11842,13 +12085,13 @@
         <v>43</v>
       </c>
       <c r="AO80" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP80" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ80" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:43">
@@ -11865,7 +12108,7 @@
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>43</v>
@@ -11877,10 +12120,10 @@
         <v>43</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>43</v>
@@ -11958,7 +12201,7 @@
         <v>43</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>43</v>
@@ -11973,13 +12216,13 @@
         <v>43</v>
       </c>
       <c r="AO81" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP81" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ81" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:43">
@@ -11996,7 +12239,7 @@
         <v>42</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>43</v>
@@ -12008,10 +12251,10 @@
         <v>43</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>43</v>
@@ -12089,7 +12332,7 @@
         <v>43</v>
       </c>
       <c r="AJ82" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AK82" s="3" t="s">
         <v>43</v>
@@ -12104,13 +12347,13 @@
         <v>43</v>
       </c>
       <c r="AO82" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP82" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ82" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:43">
@@ -12127,7 +12370,7 @@
         <v>42</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>43</v>
@@ -12139,10 +12382,10 @@
         <v>43</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>43</v>
@@ -12235,13 +12478,13 @@
         <v>43</v>
       </c>
       <c r="AO83" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP83" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ83" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:43">
@@ -12258,7 +12501,7 @@
         <v>42</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>43</v>
@@ -12270,10 +12513,10 @@
         <v>43</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>43</v>
@@ -12348,7 +12591,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>43</v>
@@ -12366,13 +12609,13 @@
         <v>43</v>
       </c>
       <c r="AO84" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP84" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ84" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:43">
@@ -12389,7 +12632,7 @@
         <v>42</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>43</v>
@@ -12401,10 +12644,10 @@
         <v>43</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>43</v>
@@ -12479,7 +12722,7 @@
         <v>204.8</v>
       </c>
       <c r="AI85" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>43</v>
@@ -12497,13 +12740,13 @@
         <v>43</v>
       </c>
       <c r="AO85" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP85" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ85" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:43">
@@ -12520,7 +12763,7 @@
         <v>42</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>43</v>
@@ -12532,10 +12775,10 @@
         <v>43</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>43</v>
@@ -12610,7 +12853,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI86" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ86" s="3" t="s">
         <v>43</v>
@@ -12628,13 +12871,13 @@
         <v>43</v>
       </c>
       <c r="AO86" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP86" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ86" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:43">
@@ -12651,7 +12894,7 @@
         <v>42</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>43</v>
@@ -12663,10 +12906,10 @@
         <v>43</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>43</v>
@@ -12741,7 +12984,7 @@
         <v>204.8</v>
       </c>
       <c r="AI87" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ87" s="3" t="s">
         <v>43</v>
@@ -12759,13 +13002,13 @@
         <v>43</v>
       </c>
       <c r="AO87" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP87" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ87" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:43">
@@ -12779,10 +13022,10 @@
         <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>43</v>
@@ -12794,10 +13037,10 @@
         <v>43</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>43</v>
@@ -12890,13 +13133,13 @@
         <v>43</v>
       </c>
       <c r="AO88" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP88" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ88" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:43">
@@ -12910,10 +13153,10 @@
         <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>43</v>
@@ -12925,10 +13168,10 @@
         <v>43</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>43</v>
@@ -13006,7 +13249,7 @@
         <v>43</v>
       </c>
       <c r="AJ89" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AK89" s="3" t="s">
         <v>43</v>
@@ -13021,13 +13264,13 @@
         <v>43</v>
       </c>
       <c r="AO89" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP89" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ89" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:43">
@@ -13044,7 +13287,7 @@
         <v>41</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>43</v>
@@ -13056,10 +13299,10 @@
         <v>43</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>43</v>
@@ -13152,13 +13395,13 @@
         <v>43</v>
       </c>
       <c r="AO90" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP90" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ90" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:43">
@@ -13175,7 +13418,7 @@
         <v>41</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>43</v>
@@ -13187,10 +13430,10 @@
         <v>43</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>43</v>
@@ -13265,7 +13508,7 @@
         <v>25.5</v>
       </c>
       <c r="AI91" s="3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>43</v>
@@ -13283,13 +13526,13 @@
         <v>43</v>
       </c>
       <c r="AO91" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP91" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ91" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:43">
@@ -13306,7 +13549,7 @@
         <v>41</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>43</v>
@@ -13318,10 +13561,10 @@
         <v>43</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>43</v>
@@ -13411,16 +13654,16 @@
         <v>43</v>
       </c>
       <c r="AN92" s="2" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="AO92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP92" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:43">
@@ -13437,7 +13680,7 @@
         <v>41</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>43</v>
@@ -13449,10 +13692,10 @@
         <v>43</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>43</v>
@@ -13542,16 +13785,16 @@
         <v>43</v>
       </c>
       <c r="AN93" s="3" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="AO93" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP93" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ93" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:43">
@@ -13568,7 +13811,7 @@
         <v>41</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>43</v>
@@ -13580,10 +13823,10 @@
         <v>43</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>43</v>
@@ -13673,16 +13916,16 @@
         <v>43</v>
       </c>
       <c r="AN94" s="3" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="AO94" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP94" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ94" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:43">
@@ -13699,7 +13942,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>43</v>
@@ -13711,10 +13954,10 @@
         <v>43</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>43</v>
@@ -13804,16 +14047,16 @@
         <v>43</v>
       </c>
       <c r="AN95" s="3" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="AO95" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP95" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ95" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:43">
@@ -13827,10 +14070,10 @@
         <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>43</v>
@@ -13842,10 +14085,10 @@
         <v>43</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>43</v>
@@ -13920,7 +14163,7 @@
         <v>255</v>
       </c>
       <c r="AI96" s="2" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AJ96" s="2" t="s">
         <v>43</v>
@@ -13935,16 +14178,16 @@
         <v>43</v>
       </c>
       <c r="AN96" s="2" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AO96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:43">
@@ -13961,7 +14204,7 @@
         <v>41</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>43</v>
@@ -13973,10 +14216,10 @@
         <v>43</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>43</v>
@@ -14066,16 +14309,16 @@
         <v>43</v>
       </c>
       <c r="AN97" s="3" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="AO97" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP97" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ97" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:43">
@@ -14092,7 +14335,7 @@
         <v>41</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>43</v>
@@ -14104,10 +14347,10 @@
         <v>43</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>43</v>
@@ -14197,16 +14440,16 @@
         <v>43</v>
       </c>
       <c r="AN98" s="3" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="AO98" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP98" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ98" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:43">
@@ -14223,7 +14466,7 @@
         <v>41</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>43</v>
@@ -14235,10 +14478,10 @@
         <v>43</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>43</v>
@@ -14316,7 +14559,7 @@
         <v>43</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>43</v>
@@ -14328,16 +14571,16 @@
         <v>43</v>
       </c>
       <c r="AN99" s="2" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="AO99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP99" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:43">
@@ -14351,10 +14594,10 @@
         <v>42</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>43</v>
@@ -14366,10 +14609,10 @@
         <v>43</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>43</v>
@@ -14444,7 +14687,7 @@
         <v>63.5</v>
       </c>
       <c r="AI100" s="3" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>43</v>
@@ -14459,16 +14702,16 @@
         <v>43</v>
       </c>
       <c r="AN100" s="3" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="AO100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP100" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:43">
@@ -14482,10 +14725,10 @@
         <v>42</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>43</v>
@@ -14497,10 +14740,10 @@
         <v>43</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>43</v>
@@ -14575,7 +14818,7 @@
         <v>63.75</v>
       </c>
       <c r="AI101" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>43</v>
@@ -14590,16 +14833,16 @@
         <v>43</v>
       </c>
       <c r="AN101" s="3" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="AO101" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP101" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ101" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:43">
@@ -14613,10 +14856,10 @@
         <v>42</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>43</v>
@@ -14628,10 +14871,10 @@
         <v>43</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>43</v>
@@ -14721,16 +14964,16 @@
         <v>43</v>
       </c>
       <c r="AN102" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AO102" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP102" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ102" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:43">
@@ -14744,10 +14987,10 @@
         <v>42</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>43</v>
@@ -14759,10 +15002,10 @@
         <v>43</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>43</v>
@@ -14837,7 +15080,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI103" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ103" s="3" t="s">
         <v>43</v>
@@ -14852,16 +15095,16 @@
         <v>43</v>
       </c>
       <c r="AN103" s="3" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="AO103" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP103" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ103" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:43">
@@ -14875,10 +15118,10 @@
         <v>42</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>43</v>
@@ -14890,10 +15133,10 @@
         <v>43</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>43</v>
@@ -14968,7 +15211,7 @@
         <v>127.75</v>
       </c>
       <c r="AI104" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>43</v>
@@ -14983,16 +15226,16 @@
         <v>43</v>
       </c>
       <c r="AN104" s="3" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="AO104" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP104" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ104" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:43">
@@ -15006,10 +15249,10 @@
         <v>42</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>43</v>
@@ -15021,10 +15264,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>43</v>
@@ -15099,7 +15342,7 @@
         <v>204.8</v>
       </c>
       <c r="AI105" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ105" s="3" t="s">
         <v>43</v>
@@ -15114,16 +15357,16 @@
         <v>43</v>
       </c>
       <c r="AN105" s="3" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="AO105" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP105" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ105" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:43">
@@ -15137,10 +15380,10 @@
         <v>42</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>43</v>
@@ -15152,10 +15395,10 @@
         <v>43</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>43</v>
@@ -15233,7 +15476,7 @@
         <v>43</v>
       </c>
       <c r="AJ106" s="2" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="AK106" s="2" t="s">
         <v>43</v>
@@ -15248,13 +15491,13 @@
         <v>43</v>
       </c>
       <c r="AO106" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP106" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ106" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:43">
@@ -15268,10 +15511,10 @@
         <v>42</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>43</v>
@@ -15283,10 +15526,10 @@
         <v>43</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>43</v>
@@ -15364,7 +15607,7 @@
         <v>43</v>
       </c>
       <c r="AJ107" s="3" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="AK107" s="3" t="s">
         <v>43</v>
@@ -15379,13 +15622,13 @@
         <v>43</v>
       </c>
       <c r="AO107" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP107" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ107" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:43">
@@ -15402,7 +15645,7 @@
         <v>41</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>43</v>
@@ -15414,10 +15657,10 @@
         <v>43</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>43</v>
@@ -15507,16 +15750,16 @@
         <v>43</v>
       </c>
       <c r="AN108" s="3" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="AO108" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP108" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ108" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:43">
@@ -15533,7 +15776,7 @@
         <v>41</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>43</v>
@@ -15545,10 +15788,10 @@
         <v>43</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>43</v>
@@ -15638,16 +15881,16 @@
         <v>43</v>
       </c>
       <c r="AN109" s="3" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="AO109" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP109" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ109" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:43">
@@ -15664,7 +15907,7 @@
         <v>41</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>43</v>
@@ -15676,10 +15919,10 @@
         <v>43</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>43</v>
@@ -15769,16 +16012,16 @@
         <v>43</v>
       </c>
       <c r="AN110" s="3" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="AO110" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP110" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ110" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:43">
@@ -15795,7 +16038,7 @@
         <v>41</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>43</v>
@@ -15807,10 +16050,10 @@
         <v>43</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>43</v>
@@ -15885,10 +16128,10 @@
         <v>7</v>
       </c>
       <c r="AI111" s="2" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AJ111" s="2" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="AK111" s="2" t="s">
         <v>43</v>
@@ -15900,16 +16143,16 @@
         <v>43</v>
       </c>
       <c r="AN111" s="2" t="s">
-        <v>43</v>
+        <v>302</v>
       </c>
       <c r="AO111" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP111" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ111" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:43">
@@ -15926,7 +16169,7 @@
         <v>41</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>43</v>
@@ -15938,10 +16181,10 @@
         <v>43</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>43</v>
@@ -16016,7 +16259,7 @@
         <v>63.75</v>
       </c>
       <c r="AI112" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ112" s="3" t="s">
         <v>43</v>
@@ -16031,16 +16274,16 @@
         <v>43</v>
       </c>
       <c r="AN112" s="3" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AO112" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP112" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ112" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:43">
@@ -16057,7 +16300,7 @@
         <v>41</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>43</v>
@@ -16069,10 +16312,10 @@
         <v>43</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>43</v>
@@ -16147,7 +16390,7 @@
         <v>63.5</v>
       </c>
       <c r="AI113" s="3" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="AJ113" s="3" t="s">
         <v>43</v>
@@ -16162,16 +16405,16 @@
         <v>43</v>
       </c>
       <c r="AN113" s="3" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="AO113" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP113" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ113" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:43">
@@ -16188,7 +16431,7 @@
         <v>41</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>43</v>
@@ -16200,10 +16443,10 @@
         <v>43</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>43</v>
@@ -16278,7 +16521,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI114" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ114" s="3" t="s">
         <v>43</v>
@@ -16293,16 +16536,16 @@
         <v>43</v>
       </c>
       <c r="AN114" s="3" t="s">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="AO114" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP114" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ114" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:43">
@@ -16319,7 +16562,7 @@
         <v>41</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>43</v>
@@ -16331,10 +16574,10 @@
         <v>43</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>43</v>
@@ -16409,7 +16652,7 @@
         <v>255</v>
       </c>
       <c r="AI115" s="3" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AJ115" s="3" t="s">
         <v>43</v>
@@ -16424,16 +16667,16 @@
         <v>43</v>
       </c>
       <c r="AN115" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="AO115" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP115" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ115" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:43">
@@ -16450,7 +16693,7 @@
         <v>41</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>43</v>
@@ -16462,10 +16705,10 @@
         <v>43</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>43</v>
@@ -16540,7 +16783,7 @@
         <v>127.75</v>
       </c>
       <c r="AI116" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ116" s="3" t="s">
         <v>43</v>
@@ -16555,16 +16798,16 @@
         <v>43</v>
       </c>
       <c r="AN116" s="3" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="AO116" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP116" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ116" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:43">
@@ -16581,7 +16824,7 @@
         <v>41</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>43</v>
@@ -16593,10 +16836,10 @@
         <v>43</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>43</v>
@@ -16671,7 +16914,7 @@
         <v>102.3</v>
       </c>
       <c r="AI117" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ117" s="3" t="s">
         <v>43</v>
@@ -16686,16 +16929,16 @@
         <v>43</v>
       </c>
       <c r="AN117" s="3" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="AO117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP117" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:43">
@@ -16712,7 +16955,7 @@
         <v>41</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>43</v>
@@ -16724,10 +16967,10 @@
         <v>43</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>43</v>
@@ -16802,7 +17045,7 @@
         <v>255</v>
       </c>
       <c r="AI118" s="2" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AJ118" s="2" t="s">
         <v>43</v>
@@ -16817,16 +17060,16 @@
         <v>43</v>
       </c>
       <c r="AN118" s="2" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="AO118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP118" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:43">
@@ -16843,7 +17086,7 @@
         <v>41</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>43</v>
@@ -16855,10 +17098,10 @@
         <v>43</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>43</v>
@@ -16933,10 +17176,10 @@
         <v>31</v>
       </c>
       <c r="AI119" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ119" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK119" s="3" t="s">
         <v>43</v>
@@ -16948,16 +17191,16 @@
         <v>43</v>
       </c>
       <c r="AN119" s="3" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AO119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP119" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:43">
@@ -16974,7 +17217,7 @@
         <v>41</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>43</v>
@@ -16986,10 +17229,10 @@
         <v>43</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>43</v>
@@ -17067,7 +17310,7 @@
         <v>43</v>
       </c>
       <c r="AJ120" s="3" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="AK120" s="3" t="s">
         <v>43</v>
@@ -17079,16 +17322,16 @@
         <v>43</v>
       </c>
       <c r="AN120" s="3" t="s">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="AO120" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP120" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ120" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -17105,7 +17348,7 @@
         <v>41</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>43</v>
@@ -17117,10 +17360,10 @@
         <v>43</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>43</v>
@@ -17195,10 +17438,10 @@
         <v>31</v>
       </c>
       <c r="AI121" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ121" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AK121" s="3" t="s">
         <v>43</v>
@@ -17210,16 +17453,16 @@
         <v>43</v>
       </c>
       <c r="AN121" s="3" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="AO121" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP121" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ121" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:43">
@@ -17236,7 +17479,7 @@
         <v>41</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>43</v>
@@ -17248,10 +17491,10 @@
         <v>43</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>43</v>
@@ -17326,10 +17569,10 @@
         <v>31</v>
       </c>
       <c r="AI122" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AJ122" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AK122" s="3" t="s">
         <v>43</v>
@@ -17341,16 +17584,16 @@
         <v>43</v>
       </c>
       <c r="AN122" s="3" t="s">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="AO122" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP122" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ122" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:43">
@@ -17367,7 +17610,7 @@
         <v>41</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>43</v>
@@ -17379,10 +17622,10 @@
         <v>43</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>43</v>
@@ -17457,10 +17700,10 @@
         <v>31</v>
       </c>
       <c r="AI123" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AJ123" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK123" s="3" t="s">
         <v>43</v>
@@ -17472,16 +17715,16 @@
         <v>43</v>
       </c>
       <c r="AN123" s="3" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="AO123" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP123" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ123" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:43">
@@ -17498,7 +17741,7 @@
         <v>41</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>43</v>
@@ -17510,10 +17753,10 @@
         <v>43</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>43</v>
@@ -17603,16 +17846,16 @@
         <v>43</v>
       </c>
       <c r="AN124" s="3" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AO124" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP124" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ124" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:43">
@@ -17629,7 +17872,7 @@
         <v>41</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>43</v>
@@ -17641,10 +17884,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>43</v>
@@ -17719,10 +17962,10 @@
         <v>7</v>
       </c>
       <c r="AI125" s="3" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AJ125" s="3" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="AK125" s="3" t="s">
         <v>43</v>
@@ -17734,16 +17977,16 @@
         <v>43</v>
       </c>
       <c r="AN125" s="3" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="AO125" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP125" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ125" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
+++ b/dbc/ALIEN_OF_DBC/ARS408_can_database_ch01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="408">
   <si>
     <t>Result</t>
   </si>
@@ -250,6 +250,9 @@
 31:Invalid</t>
   </si>
   <si>
+    <t>Obj_2_Quality_SigGroup</t>
+  </si>
+  <si>
     <t>Object relative longitudinal acceleration standard deviation</t>
   </si>
   <si>
@@ -416,6 +419,9 @@
 7:Description for the value '0x7'</t>
   </si>
   <si>
+    <t>Obj_3_Extended_SigGroup</t>
+  </si>
+  <si>
     <t>Object classification</t>
   </si>
   <si>
@@ -1286,6 +1292,9 @@
   </si>
   <si>
     <t>dBm²</t>
+  </si>
+  <si>
+    <t>Obj_1_General_SigGroup</t>
   </si>
   <si>
     <t>Object RCS value (radar cross section)</t>
@@ -2364,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>44</v>
@@ -2373,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="3" t="s">
         <v>44</v>
@@ -2402,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -2498,7 +2507,7 @@
         <v>59</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>44</v>
@@ -2507,7 +2516,7 @@
         <v>44</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>44</v>
@@ -2536,7 +2545,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -2629,10 +2638,10 @@
         <v>44</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>44</v>
@@ -2641,7 +2650,7 @@
         <v>44</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AO6" s="3" t="s">
         <v>44</v>
@@ -2670,7 +2679,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2763,10 +2772,10 @@
         <v>44</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>44</v>
@@ -2775,7 +2784,7 @@
         <v>44</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO7" s="3" t="s">
         <v>44</v>
@@ -2804,7 +2813,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2897,7 +2906,7 @@
         <v>44</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>44</v>
@@ -2909,7 +2918,7 @@
         <v>44</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AO8" s="3" t="s">
         <v>44</v>
@@ -2938,7 +2947,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -3031,10 +3040,10 @@
         <v>44</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>44</v>
@@ -3043,7 +3052,7 @@
         <v>44</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO9" s="3" t="s">
         <v>44</v>
@@ -3072,7 +3081,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -3165,10 +3174,10 @@
         <v>44</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL10" s="3" t="s">
         <v>44</v>
@@ -3177,7 +3186,7 @@
         <v>44</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO10" s="3" t="s">
         <v>44</v>
@@ -3206,7 +3215,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -3302,7 +3311,7 @@
         <v>44</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL11" s="3" t="s">
         <v>44</v>
@@ -3311,7 +3320,7 @@
         <v>44</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>44</v>
@@ -3340,7 +3349,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
@@ -3352,10 +3361,10 @@
         <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -3433,10 +3442,10 @@
         <v>44</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>44</v>
@@ -3445,7 +3454,7 @@
         <v>44</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AO12" s="2" t="s">
         <v>44</v>
@@ -3474,7 +3483,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -3486,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>44</v>
@@ -3564,7 +3573,7 @@
         <v>2.61</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>44</v>
@@ -3579,7 +3588,7 @@
         <v>44</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AO13" s="3" t="s">
         <v>44</v>
@@ -3608,7 +3617,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
@@ -3620,10 +3629,10 @@
         <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>44</v>
@@ -3704,7 +3713,7 @@
         <v>44</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="AL14" s="3" t="s">
         <v>44</v>
@@ -3713,7 +3722,7 @@
         <v>44</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AO14" s="3" t="s">
         <v>44</v>
@@ -3742,7 +3751,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -3754,10 +3763,10 @@
         <v>44</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>44</v>
@@ -3832,7 +3841,7 @@
         <v>229.2</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ15" s="3" t="s">
         <v>44</v>
@@ -3847,7 +3856,7 @@
         <v>44</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AO15" s="3" t="s">
         <v>44</v>
@@ -3876,7 +3885,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -3888,10 +3897,10 @@
         <v>44</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>44</v>
@@ -3966,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ16" s="3" t="s">
         <v>44</v>
@@ -3981,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AO16" s="3" t="s">
         <v>44</v>
@@ -4010,7 +4019,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
@@ -4022,10 +4031,10 @@
         <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>44</v>
@@ -4100,7 +4109,7 @@
         <v>51</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ17" s="3" t="s">
         <v>44</v>
@@ -4115,7 +4124,7 @@
         <v>44</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AO17" s="3" t="s">
         <v>44</v>
@@ -4144,7 +4153,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
@@ -4156,10 +4165,10 @@
         <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>44</v>
@@ -4234,7 +4243,7 @@
         <v>10.47</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ18" s="3" t="s">
         <v>44</v>
@@ -4249,7 +4258,7 @@
         <v>44</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AO18" s="3" t="s">
         <v>44</v>
@@ -4278,7 +4287,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
@@ -4290,10 +4299,10 @@
         <v>44</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -4371,7 +4380,7 @@
         <v>44</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>44</v>
@@ -4412,22 +4421,22 @@
         <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>44</v>
@@ -4546,7 +4555,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -4558,10 +4567,10 @@
         <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>44</v>
@@ -4680,7 +4689,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -4692,10 +4701,10 @@
         <v>44</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>44</v>
@@ -4770,7 +4779,7 @@
         <v>204.8</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>44</v>
@@ -4814,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>44</v>
@@ -4826,10 +4835,10 @@
         <v>44</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>44</v>
@@ -4904,7 +4913,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ23" s="3" t="s">
         <v>44</v>
@@ -4948,7 +4957,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>44</v>
@@ -4960,10 +4969,10 @@
         <v>44</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>44</v>
@@ -5038,7 +5047,7 @@
         <v>204.8</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ24" s="3" t="s">
         <v>44</v>
@@ -5082,7 +5091,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>44</v>
@@ -5094,10 +5103,10 @@
         <v>44</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>44</v>
@@ -5172,7 +5181,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ25" s="3" t="s">
         <v>44</v>
@@ -5216,7 +5225,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>44</v>
@@ -5228,10 +5237,10 @@
         <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>44</v>
@@ -5321,7 +5330,7 @@
         <v>44</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AO26" s="2" t="s">
         <v>44</v>
@@ -5350,22 +5359,22 @@
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>44</v>
@@ -5455,7 +5464,7 @@
         <v>44</v>
       </c>
       <c r="AN27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AO27" s="3" t="s">
         <v>44</v>
@@ -5484,7 +5493,7 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>44</v>
@@ -5496,10 +5505,10 @@
         <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>44</v>
@@ -5589,7 +5598,7 @@
         <v>44</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AO28" s="2" t="s">
         <v>44</v>
@@ -5618,7 +5627,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>44</v>
@@ -5630,10 +5639,10 @@
         <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>44</v>
@@ -5752,22 +5761,22 @@
         <v>42</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>44</v>
@@ -5886,22 +5895,22 @@
         <v>42</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>44</v>
@@ -5976,7 +5985,7 @@
         <v>409.5</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ31" s="3" t="s">
         <v>44</v>
@@ -6020,7 +6029,7 @@
         <v>42</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>44</v>
@@ -6032,10 +6041,10 @@
         <v>44</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>44</v>
@@ -6110,7 +6119,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI32" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ32" s="3" t="s">
         <v>44</v>
@@ -6154,7 +6163,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>44</v>
@@ -6166,10 +6175,10 @@
         <v>44</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>44</v>
@@ -6244,7 +6253,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ33" s="3" t="s">
         <v>44</v>
@@ -6288,7 +6297,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>44</v>
@@ -6300,10 +6309,10 @@
         <v>44</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>44</v>
@@ -6378,7 +6387,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ34" s="3" t="s">
         <v>44</v>
@@ -6422,7 +6431,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>44</v>
@@ -6434,10 +6443,10 @@
         <v>44</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>44</v>
@@ -6512,7 +6521,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI35" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ35" s="3" t="s">
         <v>44</v>
@@ -6556,7 +6565,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>44</v>
@@ -6568,10 +6577,10 @@
         <v>44</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>44</v>
@@ -6646,7 +6655,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI36" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ36" s="3" t="s">
         <v>44</v>
@@ -6690,7 +6699,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>44</v>
@@ -6702,10 +6711,10 @@
         <v>44</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>44</v>
@@ -6780,7 +6789,7 @@
         <v>409.5</v>
       </c>
       <c r="AI37" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ37" s="3" t="s">
         <v>44</v>
@@ -6824,7 +6833,7 @@
         <v>42</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>44</v>
@@ -6836,10 +6845,10 @@
         <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>44</v>
@@ -6914,7 +6923,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI38" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ38" s="3" t="s">
         <v>44</v>
@@ -6958,7 +6967,7 @@
         <v>42</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>44</v>
@@ -6970,10 +6979,10 @@
         <v>44</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>44</v>
@@ -7048,7 +7057,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI39" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ39" s="3" t="s">
         <v>44</v>
@@ -7092,7 +7101,7 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>44</v>
@@ -7104,10 +7113,10 @@
         <v>44</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>44</v>
@@ -7182,7 +7191,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI40" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ40" s="3" t="s">
         <v>44</v>
@@ -7226,7 +7235,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>44</v>
@@ -7238,10 +7247,10 @@
         <v>44</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>44</v>
@@ -7316,7 +7325,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ41" s="3" t="s">
         <v>44</v>
@@ -7360,7 +7369,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>44</v>
@@ -7372,10 +7381,10 @@
         <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>44</v>
@@ -7450,7 +7459,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ42" s="3" t="s">
         <v>44</v>
@@ -7494,7 +7503,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>44</v>
@@ -7506,10 +7515,10 @@
         <v>44</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>44</v>
@@ -7587,7 +7596,7 @@
         <v>44</v>
       </c>
       <c r="AJ43" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK43" s="3" t="s">
         <v>44</v>
@@ -7628,7 +7637,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>44</v>
@@ -7640,10 +7649,10 @@
         <v>44</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>44</v>
@@ -7718,7 +7727,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI44" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ44" s="3" t="s">
         <v>44</v>
@@ -7762,7 +7771,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>44</v>
@@ -7774,10 +7783,10 @@
         <v>44</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>44</v>
@@ -7852,7 +7861,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI45" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ45" s="3" t="s">
         <v>44</v>
@@ -7896,7 +7905,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>44</v>
@@ -7908,10 +7917,10 @@
         <v>44</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>44</v>
@@ -7986,7 +7995,7 @@
         <v>102.375</v>
       </c>
       <c r="AI46" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ46" s="3" t="s">
         <v>44</v>
@@ -8030,7 +8039,7 @@
         <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>44</v>
@@ -8042,10 +8051,10 @@
         <v>44</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>44</v>
@@ -8120,7 +8129,7 @@
         <v>52.375</v>
       </c>
       <c r="AI47" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ47" s="3" t="s">
         <v>44</v>
@@ -8164,7 +8173,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>44</v>
@@ -8176,10 +8185,10 @@
         <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>44</v>
@@ -8257,7 +8266,7 @@
         <v>44</v>
       </c>
       <c r="AJ48" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK48" s="3" t="s">
         <v>44</v>
@@ -8298,7 +8307,7 @@
         <v>42</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>44</v>
@@ -8310,10 +8319,10 @@
         <v>44</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>44</v>
@@ -8432,7 +8441,7 @@
         <v>42</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>44</v>
@@ -8444,10 +8453,10 @@
         <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>44</v>
@@ -8522,7 +8531,7 @@
         <v>409.5</v>
       </c>
       <c r="AI50" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ50" s="3" t="s">
         <v>44</v>
@@ -8566,7 +8575,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>44</v>
@@ -8578,10 +8587,10 @@
         <v>44</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>44</v>
@@ -8656,7 +8665,7 @@
         <v>409.5</v>
       </c>
       <c r="AI51" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ51" s="3" t="s">
         <v>44</v>
@@ -8700,7 +8709,7 @@
         <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>44</v>
@@ -8712,10 +8721,10 @@
         <v>44</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>44</v>
@@ -8790,7 +8799,7 @@
         <v>52.375</v>
       </c>
       <c r="AI52" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ52" s="3" t="s">
         <v>44</v>
@@ -8834,7 +8843,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>44</v>
@@ -8846,10 +8855,10 @@
         <v>44</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>44</v>
@@ -8924,7 +8933,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI53" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ53" s="3" t="s">
         <v>44</v>
@@ -8968,7 +8977,7 @@
         <v>42</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>44</v>
@@ -8980,10 +8989,10 @@
         <v>44</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>44</v>
@@ -9058,7 +9067,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI54" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ54" s="3" t="s">
         <v>44</v>
@@ -9102,7 +9111,7 @@
         <v>42</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>44</v>
@@ -9114,10 +9123,10 @@
         <v>44</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>44</v>
@@ -9192,7 +9201,7 @@
         <v>102.375</v>
       </c>
       <c r="AI55" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ55" s="3" t="s">
         <v>44</v>
@@ -9236,7 +9245,7 @@
         <v>42</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>44</v>
@@ -9248,10 +9257,10 @@
         <v>44</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>44</v>
@@ -9326,7 +9335,7 @@
         <v>52.375</v>
       </c>
       <c r="AI56" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ56" s="3" t="s">
         <v>44</v>
@@ -9370,7 +9379,7 @@
         <v>42</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>44</v>
@@ -9382,10 +9391,10 @@
         <v>44</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>44</v>
@@ -9504,7 +9513,7 @@
         <v>42</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>44</v>
@@ -9516,10 +9525,10 @@
         <v>44</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>44</v>
@@ -9638,7 +9647,7 @@
         <v>42</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>44</v>
@@ -9650,10 +9659,10 @@
         <v>44</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>44</v>
@@ -9728,7 +9737,7 @@
         <v>409.5</v>
       </c>
       <c r="AI59" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ59" s="3" t="s">
         <v>44</v>
@@ -9772,7 +9781,7 @@
         <v>42</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>44</v>
@@ -9784,10 +9793,10 @@
         <v>44</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>44</v>
@@ -9862,7 +9871,7 @@
         <v>409.5</v>
       </c>
       <c r="AI60" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ60" s="3" t="s">
         <v>44</v>
@@ -9906,7 +9915,7 @@
         <v>42</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>44</v>
@@ -9918,10 +9927,10 @@
         <v>44</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>44</v>
@@ -9996,7 +10005,7 @@
         <v>52.375</v>
       </c>
       <c r="AI61" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ61" s="3" t="s">
         <v>44</v>
@@ -10040,7 +10049,7 @@
         <v>42</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>44</v>
@@ -10052,10 +10061,10 @@
         <v>44</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>44</v>
@@ -10133,7 +10142,7 @@
         <v>44</v>
       </c>
       <c r="AJ62" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK62" s="3" t="s">
         <v>44</v>
@@ -10148,7 +10157,7 @@
         <v>44</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP62" s="3" t="s">
         <v>52</v>
@@ -10174,7 +10183,7 @@
         <v>42</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>44</v>
@@ -10186,10 +10195,10 @@
         <v>44</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>44</v>
@@ -10267,7 +10276,7 @@
         <v>44</v>
       </c>
       <c r="AJ63" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AK63" s="3" t="s">
         <v>44</v>
@@ -10308,7 +10317,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>44</v>
@@ -10320,10 +10329,10 @@
         <v>44</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>44</v>
@@ -10442,22 +10451,22 @@
         <v>42</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="J65" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>44</v>
@@ -10576,7 +10585,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>44</v>
@@ -10588,10 +10597,10 @@
         <v>44</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>44</v>
@@ -10710,22 +10719,22 @@
         <v>43</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="J67" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>44</v>
@@ -10844,22 +10853,22 @@
         <v>43</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>44</v>
@@ -10934,7 +10943,7 @@
         <v>409.5</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ68" s="3" t="s">
         <v>44</v>
@@ -10978,7 +10987,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>44</v>
@@ -10990,10 +10999,10 @@
         <v>44</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>44</v>
@@ -11068,7 +11077,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI69" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ69" s="3" t="s">
         <v>44</v>
@@ -11112,7 +11121,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>44</v>
@@ -11124,10 +11133,10 @@
         <v>44</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>44</v>
@@ -11202,7 +11211,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ70" s="3" t="s">
         <v>44</v>
@@ -11246,7 +11255,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>44</v>
@@ -11258,10 +11267,10 @@
         <v>44</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>44</v>
@@ -11336,7 +11345,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI71" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ71" s="3" t="s">
         <v>44</v>
@@ -11380,7 +11389,7 @@
         <v>43</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>44</v>
@@ -11392,10 +11401,10 @@
         <v>44</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>44</v>
@@ -11470,7 +11479,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI72" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ72" s="3" t="s">
         <v>44</v>
@@ -11514,7 +11523,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>44</v>
@@ -11526,10 +11535,10 @@
         <v>44</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>44</v>
@@ -11604,7 +11613,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI73" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ73" s="3" t="s">
         <v>44</v>
@@ -11648,7 +11657,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>44</v>
@@ -11660,10 +11669,10 @@
         <v>44</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>44</v>
@@ -11738,7 +11747,7 @@
         <v>409.5</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="3" t="s">
         <v>44</v>
@@ -11782,7 +11791,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>44</v>
@@ -11794,10 +11803,10 @@
         <v>44</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>44</v>
@@ -11872,7 +11881,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI75" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ75" s="3" t="s">
         <v>44</v>
@@ -11916,7 +11925,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>44</v>
@@ -11928,10 +11937,10 @@
         <v>44</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>44</v>
@@ -12006,7 +12015,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI76" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ76" s="3" t="s">
         <v>44</v>
@@ -12050,7 +12059,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>44</v>
@@ -12062,10 +12071,10 @@
         <v>44</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>44</v>
@@ -12140,7 +12149,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI77" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ77" s="3" t="s">
         <v>44</v>
@@ -12184,7 +12193,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>44</v>
@@ -12196,10 +12205,10 @@
         <v>44</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>44</v>
@@ -12274,7 +12283,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI78" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ78" s="3" t="s">
         <v>44</v>
@@ -12318,7 +12327,7 @@
         <v>43</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>44</v>
@@ -12330,10 +12339,10 @@
         <v>44</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>44</v>
@@ -12408,7 +12417,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI79" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ79" s="3" t="s">
         <v>44</v>
@@ -12452,7 +12461,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>44</v>
@@ -12464,10 +12473,10 @@
         <v>44</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>44</v>
@@ -12545,7 +12554,7 @@
         <v>44</v>
       </c>
       <c r="AJ80" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AK80" s="3" t="s">
         <v>44</v>
@@ -12586,7 +12595,7 @@
         <v>43</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>44</v>
@@ -12598,10 +12607,10 @@
         <v>44</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>44</v>
@@ -12679,7 +12688,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AK81" s="3" t="s">
         <v>44</v>
@@ -12720,7 +12729,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>44</v>
@@ -12732,10 +12741,10 @@
         <v>44</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>44</v>
@@ -12810,7 +12819,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI82" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ82" s="3" t="s">
         <v>44</v>
@@ -12854,7 +12863,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>44</v>
@@ -12866,10 +12875,10 @@
         <v>44</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>44</v>
@@ -12944,7 +12953,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI83" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ83" s="3" t="s">
         <v>44</v>
@@ -12988,7 +12997,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>44</v>
@@ -13000,10 +13009,10 @@
         <v>44</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>44</v>
@@ -13078,7 +13087,7 @@
         <v>102.375</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>44</v>
@@ -13122,7 +13131,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>44</v>
@@ -13134,10 +13143,10 @@
         <v>44</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>44</v>
@@ -13212,7 +13221,7 @@
         <v>52.375</v>
       </c>
       <c r="AI85" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>44</v>
@@ -13256,7 +13265,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>44</v>
@@ -13268,10 +13277,10 @@
         <v>44</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>44</v>
@@ -13390,7 +13399,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>44</v>
@@ -13402,10 +13411,10 @@
         <v>44</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>44</v>
@@ -13524,7 +13533,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>44</v>
@@ -13536,10 +13545,10 @@
         <v>44</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>44</v>
@@ -13614,7 +13623,7 @@
         <v>409.5</v>
       </c>
       <c r="AI88" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ88" s="3" t="s">
         <v>44</v>
@@ -13658,7 +13667,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>44</v>
@@ -13670,10 +13679,10 @@
         <v>44</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>44</v>
@@ -13748,7 +13757,7 @@
         <v>409.5</v>
       </c>
       <c r="AI89" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ89" s="3" t="s">
         <v>44</v>
@@ -13792,7 +13801,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>44</v>
@@ -13804,10 +13813,10 @@
         <v>44</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>44</v>
@@ -13882,7 +13891,7 @@
         <v>52.375</v>
       </c>
       <c r="AI90" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ90" s="3" t="s">
         <v>44</v>
@@ -13926,7 +13935,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>44</v>
@@ -13938,10 +13947,10 @@
         <v>44</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>44</v>
@@ -14016,7 +14025,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI91" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>44</v>
@@ -14060,7 +14069,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>44</v>
@@ -14072,10 +14081,10 @@
         <v>44</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>44</v>
@@ -14150,7 +14159,7 @@
         <v>128.9925</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ92" s="3" t="s">
         <v>44</v>
@@ -14194,7 +14203,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>44</v>
@@ -14206,10 +14215,10 @@
         <v>44</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>44</v>
@@ -14284,7 +14293,7 @@
         <v>102.375</v>
       </c>
       <c r="AI93" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ93" s="3" t="s">
         <v>44</v>
@@ -14328,7 +14337,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>44</v>
@@ -14340,10 +14349,10 @@
         <v>44</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>44</v>
@@ -14418,7 +14427,7 @@
         <v>52.375</v>
       </c>
       <c r="AI94" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ94" s="3" t="s">
         <v>44</v>
@@ -14462,7 +14471,7 @@
         <v>43</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>44</v>
@@ -14474,10 +14483,10 @@
         <v>44</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>44</v>
@@ -14555,7 +14564,7 @@
         <v>44</v>
       </c>
       <c r="AJ95" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK95" s="3" t="s">
         <v>44</v>
@@ -14596,7 +14605,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>44</v>
@@ -14608,10 +14617,10 @@
         <v>44</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>44</v>
@@ -14686,7 +14695,7 @@
         <v>409.5</v>
       </c>
       <c r="AI96" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ96" s="3" t="s">
         <v>44</v>
@@ -14730,7 +14739,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>44</v>
@@ -14742,10 +14751,10 @@
         <v>44</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>44</v>
@@ -14820,7 +14829,7 @@
         <v>52.375</v>
       </c>
       <c r="AI97" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ97" s="3" t="s">
         <v>44</v>
@@ -14864,7 +14873,7 @@
         <v>43</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>44</v>
@@ -14876,10 +14885,10 @@
         <v>44</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>44</v>
@@ -14998,7 +15007,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>44</v>
@@ -15010,10 +15019,10 @@
         <v>44</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>44</v>
@@ -15088,7 +15097,7 @@
         <v>409.5</v>
       </c>
       <c r="AI99" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ99" s="3" t="s">
         <v>44</v>
@@ -15132,7 +15141,7 @@
         <v>43</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>44</v>
@@ -15144,10 +15153,10 @@
         <v>44</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>44</v>
@@ -15225,7 +15234,7 @@
         <v>44</v>
       </c>
       <c r="AJ100" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK100" s="3" t="s">
         <v>44</v>
@@ -15240,7 +15249,7 @@
         <v>44</v>
       </c>
       <c r="AO100" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP100" s="3" t="s">
         <v>52</v>
@@ -15266,7 +15275,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>44</v>
@@ -15278,10 +15287,10 @@
         <v>44</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>44</v>
@@ -15359,7 +15368,7 @@
         <v>44</v>
       </c>
       <c r="AJ101" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK101" s="3" t="s">
         <v>44</v>
@@ -15397,10 +15406,10 @@
         <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>44</v>
@@ -15412,10 +15421,10 @@
         <v>44</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>44</v>
@@ -15493,7 +15502,7 @@
         <v>44</v>
       </c>
       <c r="AJ102" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK102" s="2" t="s">
         <v>44</v>
@@ -15505,7 +15514,7 @@
         <v>44</v>
       </c>
       <c r="AN102" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO102" s="2" t="s">
         <v>44</v>
@@ -15531,10 +15540,10 @@
         <v>42</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>44</v>
@@ -15546,10 +15555,10 @@
         <v>44</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>44</v>
@@ -15627,7 +15636,7 @@
         <v>44</v>
       </c>
       <c r="AJ103" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK103" s="3" t="s">
         <v>44</v>
@@ -15639,7 +15648,7 @@
         <v>44</v>
       </c>
       <c r="AN103" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO103" s="3" t="s">
         <v>44</v>
@@ -15665,10 +15674,10 @@
         <v>42</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>44</v>
@@ -15680,10 +15689,10 @@
         <v>44</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>44</v>
@@ -15761,7 +15770,7 @@
         <v>44</v>
       </c>
       <c r="AJ104" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK104" s="3" t="s">
         <v>44</v>
@@ -15773,7 +15782,7 @@
         <v>44</v>
       </c>
       <c r="AN104" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO104" s="3" t="s">
         <v>44</v>
@@ -15799,10 +15808,10 @@
         <v>42</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>44</v>
@@ -15814,10 +15823,10 @@
         <v>44</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>44</v>
@@ -15895,7 +15904,7 @@
         <v>44</v>
       </c>
       <c r="AJ105" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK105" s="3" t="s">
         <v>44</v>
@@ -15907,7 +15916,7 @@
         <v>44</v>
       </c>
       <c r="AN105" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO105" s="3" t="s">
         <v>44</v>
@@ -15933,10 +15942,10 @@
         <v>42</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>44</v>
@@ -15948,10 +15957,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>44</v>
@@ -16029,7 +16038,7 @@
         <v>44</v>
       </c>
       <c r="AJ106" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK106" s="3" t="s">
         <v>44</v>
@@ -16041,7 +16050,7 @@
         <v>44</v>
       </c>
       <c r="AN106" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AO106" s="3" t="s">
         <v>44</v>
@@ -16070,7 +16079,7 @@
         <v>43</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>44</v>
@@ -16082,10 +16091,10 @@
         <v>44</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>44</v>
@@ -16163,7 +16172,7 @@
         <v>44</v>
       </c>
       <c r="AJ107" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK107" s="3" t="s">
         <v>44</v>
@@ -16175,7 +16184,7 @@
         <v>44</v>
       </c>
       <c r="AN107" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO107" s="3" t="s">
         <v>44</v>
@@ -16204,7 +16213,7 @@
         <v>43</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>44</v>
@@ -16216,10 +16225,10 @@
         <v>44</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>44</v>
@@ -16297,7 +16306,7 @@
         <v>44</v>
       </c>
       <c r="AJ108" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK108" s="3" t="s">
         <v>44</v>
@@ -16309,7 +16318,7 @@
         <v>44</v>
       </c>
       <c r="AN108" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO108" s="3" t="s">
         <v>44</v>
@@ -16338,7 +16347,7 @@
         <v>43</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>44</v>
@@ -16350,10 +16359,10 @@
         <v>44</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>44</v>
@@ -16431,7 +16440,7 @@
         <v>44</v>
       </c>
       <c r="AJ109" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK109" s="3" t="s">
         <v>44</v>
@@ -16443,7 +16452,7 @@
         <v>44</v>
       </c>
       <c r="AN109" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AO109" s="3" t="s">
         <v>44</v>
@@ -16472,7 +16481,7 @@
         <v>43</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>44</v>
@@ -16484,10 +16493,10 @@
         <v>44</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>44</v>
@@ -16565,7 +16574,7 @@
         <v>44</v>
       </c>
       <c r="AJ110" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK110" s="3" t="s">
         <v>44</v>
@@ -16577,7 +16586,7 @@
         <v>44</v>
       </c>
       <c r="AN110" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AO110" s="3" t="s">
         <v>44</v>
@@ -16606,7 +16615,7 @@
         <v>43</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>44</v>
@@ -16618,10 +16627,10 @@
         <v>44</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>44</v>
@@ -16699,7 +16708,7 @@
         <v>44</v>
       </c>
       <c r="AJ111" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK111" s="3" t="s">
         <v>44</v>
@@ -16711,7 +16720,7 @@
         <v>44</v>
       </c>
       <c r="AN111" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO111" s="3" t="s">
         <v>44</v>
@@ -16740,7 +16749,7 @@
         <v>43</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>44</v>
@@ -16752,10 +16761,10 @@
         <v>44</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>44</v>
@@ -16833,7 +16842,7 @@
         <v>44</v>
       </c>
       <c r="AJ112" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK112" s="3" t="s">
         <v>44</v>
@@ -16845,7 +16854,7 @@
         <v>44</v>
       </c>
       <c r="AN112" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO112" s="3" t="s">
         <v>44</v>
@@ -16874,7 +16883,7 @@
         <v>43</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>44</v>
@@ -16886,10 +16895,10 @@
         <v>44</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>44</v>
@@ -16967,7 +16976,7 @@
         <v>44</v>
       </c>
       <c r="AJ113" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK113" s="3" t="s">
         <v>44</v>
@@ -16979,7 +16988,7 @@
         <v>44</v>
       </c>
       <c r="AN113" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AO113" s="3" t="s">
         <v>44</v>
@@ -17008,7 +17017,7 @@
         <v>43</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>44</v>
@@ -17020,10 +17029,10 @@
         <v>44</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>44</v>
@@ -17101,7 +17110,7 @@
         <v>44</v>
       </c>
       <c r="AJ114" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK114" s="3" t="s">
         <v>44</v>
@@ -17113,7 +17122,7 @@
         <v>44</v>
       </c>
       <c r="AN114" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AO114" s="3" t="s">
         <v>44</v>
@@ -17142,7 +17151,7 @@
         <v>43</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>44</v>
@@ -17154,10 +17163,10 @@
         <v>44</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>44</v>
@@ -17235,7 +17244,7 @@
         <v>44</v>
       </c>
       <c r="AJ115" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK115" s="3" t="s">
         <v>44</v>
@@ -17247,7 +17256,7 @@
         <v>44</v>
       </c>
       <c r="AN115" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO115" s="3" t="s">
         <v>44</v>
@@ -17276,7 +17285,7 @@
         <v>43</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>44</v>
@@ -17288,10 +17297,10 @@
         <v>44</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>44</v>
@@ -17369,7 +17378,7 @@
         <v>44</v>
       </c>
       <c r="AJ116" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK116" s="3" t="s">
         <v>44</v>
@@ -17381,7 +17390,7 @@
         <v>44</v>
       </c>
       <c r="AN116" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AO116" s="3" t="s">
         <v>44</v>
@@ -17410,7 +17419,7 @@
         <v>43</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>44</v>
@@ -17422,10 +17431,10 @@
         <v>44</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>44</v>
@@ -17503,7 +17512,7 @@
         <v>44</v>
       </c>
       <c r="AJ117" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK117" s="3" t="s">
         <v>44</v>
@@ -17515,7 +17524,7 @@
         <v>44</v>
       </c>
       <c r="AN117" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO117" s="3" t="s">
         <v>44</v>
@@ -17544,7 +17553,7 @@
         <v>43</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>44</v>
@@ -17556,10 +17565,10 @@
         <v>44</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>44</v>
@@ -17634,7 +17643,7 @@
         <v>2046</v>
       </c>
       <c r="AI118" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ118" s="3" t="s">
         <v>44</v>
@@ -17649,7 +17658,7 @@
         <v>44</v>
       </c>
       <c r="AN118" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AO118" s="3" t="s">
         <v>44</v>
@@ -17678,7 +17687,7 @@
         <v>43</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>44</v>
@@ -17690,10 +17699,10 @@
         <v>44</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>44</v>
@@ -17771,7 +17780,7 @@
         <v>44</v>
       </c>
       <c r="AJ119" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK119" s="3" t="s">
         <v>44</v>
@@ -17783,7 +17792,7 @@
         <v>44</v>
       </c>
       <c r="AN119" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AO119" s="3" t="s">
         <v>44</v>
@@ -17812,7 +17821,7 @@
         <v>43</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>44</v>
@@ -17824,10 +17833,10 @@
         <v>44</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>44</v>
@@ -17905,7 +17914,7 @@
         <v>44</v>
       </c>
       <c r="AJ120" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK120" s="3" t="s">
         <v>44</v>
@@ -17917,7 +17926,7 @@
         <v>44</v>
       </c>
       <c r="AN120" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AO120" s="3" t="s">
         <v>44</v>
@@ -17946,7 +17955,7 @@
         <v>43</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>44</v>
@@ -17958,10 +17967,10 @@
         <v>44</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>44</v>
@@ -18051,7 +18060,7 @@
         <v>44</v>
       </c>
       <c r="AN121" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO121" s="3" t="s">
         <v>44</v>
@@ -18077,10 +18086,10 @@
         <v>43</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>44</v>
@@ -18092,10 +18101,10 @@
         <v>44</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>44</v>
@@ -18173,7 +18182,7 @@
         <v>44</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>44</v>
@@ -18211,25 +18220,25 @@
         <v>43</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>44</v>
@@ -18307,7 +18316,7 @@
         <v>44</v>
       </c>
       <c r="AJ123" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK123" s="3" t="s">
         <v>44</v>
@@ -18345,10 +18354,10 @@
         <v>43</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>44</v>
@@ -18360,10 +18369,10 @@
         <v>44</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>44</v>
@@ -18441,7 +18450,7 @@
         <v>44</v>
       </c>
       <c r="AJ124" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK124" s="3" t="s">
         <v>44</v>
@@ -18479,10 +18488,10 @@
         <v>43</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>44</v>
@@ -18494,10 +18503,10 @@
         <v>44</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>44</v>
@@ -18575,7 +18584,7 @@
         <v>44</v>
       </c>
       <c r="AJ125" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK125" s="3" t="s">
         <v>44</v>
@@ -18613,10 +18622,10 @@
         <v>43</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>44</v>
@@ -18628,10 +18637,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>44</v>
@@ -18709,7 +18718,7 @@
         <v>44</v>
       </c>
       <c r="AJ126" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK126" s="3" t="s">
         <v>44</v>
@@ -18747,10 +18756,10 @@
         <v>43</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>44</v>
@@ -18762,10 +18771,10 @@
         <v>44</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>44</v>
@@ -18855,7 +18864,7 @@
         <v>44</v>
       </c>
       <c r="AN127" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AO127" s="3" t="s">
         <v>44</v>
@@ -18881,10 +18890,10 @@
         <v>43</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>44</v>
@@ -18896,10 +18905,10 @@
         <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>44</v>
@@ -18977,7 +18986,7 @@
         <v>44</v>
       </c>
       <c r="AJ128" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK128" s="3" t="s">
         <v>44</v>
@@ -18989,7 +18998,7 @@
         <v>44</v>
       </c>
       <c r="AN128" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AO128" s="3" t="s">
         <v>44</v>
@@ -19018,7 +19027,7 @@
         <v>42</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>44</v>
@@ -19030,10 +19039,10 @@
         <v>44</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>44</v>
@@ -19111,7 +19120,7 @@
         <v>44</v>
       </c>
       <c r="AJ129" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK129" s="3" t="s">
         <v>44</v>
@@ -19123,7 +19132,7 @@
         <v>44</v>
       </c>
       <c r="AN129" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AO129" s="3" t="s">
         <v>44</v>
@@ -19152,7 +19161,7 @@
         <v>42</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>44</v>
@@ -19164,10 +19173,10 @@
         <v>44</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>44</v>
@@ -19245,7 +19254,7 @@
         <v>44</v>
       </c>
       <c r="AJ130" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK130" s="3" t="s">
         <v>44</v>
@@ -19257,7 +19266,7 @@
         <v>44</v>
       </c>
       <c r="AN130" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO130" s="3" t="s">
         <v>44</v>
@@ -19286,7 +19295,7 @@
         <v>42</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>44</v>
@@ -19298,10 +19307,10 @@
         <v>44</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>44</v>
@@ -19379,7 +19388,7 @@
         <v>44</v>
       </c>
       <c r="AJ131" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK131" s="3" t="s">
         <v>44</v>
@@ -19391,7 +19400,7 @@
         <v>44</v>
       </c>
       <c r="AN131" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO131" s="3" t="s">
         <v>44</v>
@@ -19420,7 +19429,7 @@
         <v>42</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>44</v>
@@ -19432,10 +19441,10 @@
         <v>44</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>44</v>
@@ -19513,7 +19522,7 @@
         <v>44</v>
       </c>
       <c r="AJ132" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AK132" s="3" t="s">
         <v>44</v>
@@ -19525,7 +19534,7 @@
         <v>44</v>
       </c>
       <c r="AN132" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AO132" s="3" t="s">
         <v>44</v>
@@ -19554,7 +19563,7 @@
         <v>42</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>44</v>
@@ -19566,10 +19575,10 @@
         <v>44</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>44</v>
@@ -19659,7 +19668,7 @@
         <v>44</v>
       </c>
       <c r="AN133" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO133" s="3" t="s">
         <v>44</v>
@@ -19688,7 +19697,7 @@
         <v>42</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>44</v>
@@ -19700,10 +19709,10 @@
         <v>44</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>44</v>
@@ -19781,7 +19790,7 @@
         <v>44</v>
       </c>
       <c r="AJ134" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK134" s="3" t="s">
         <v>44</v>
@@ -19793,7 +19802,7 @@
         <v>44</v>
       </c>
       <c r="AN134" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AO134" s="3" t="s">
         <v>44</v>
@@ -19822,7 +19831,7 @@
         <v>42</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>44</v>
@@ -19834,10 +19843,10 @@
         <v>44</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>44</v>
@@ -19915,7 +19924,7 @@
         <v>44</v>
       </c>
       <c r="AJ135" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK135" s="3" t="s">
         <v>44</v>
@@ -19927,7 +19936,7 @@
         <v>44</v>
       </c>
       <c r="AN135" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO135" s="3" t="s">
         <v>44</v>
@@ -19956,7 +19965,7 @@
         <v>42</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>44</v>
@@ -19968,10 +19977,10 @@
         <v>44</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>44</v>
@@ -20049,7 +20058,7 @@
         <v>44</v>
       </c>
       <c r="AJ136" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK136" s="3" t="s">
         <v>44</v>
@@ -20061,7 +20070,7 @@
         <v>44</v>
       </c>
       <c r="AN136" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AO136" s="3" t="s">
         <v>44</v>
@@ -20090,7 +20099,7 @@
         <v>42</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>44</v>
@@ -20102,10 +20111,10 @@
         <v>44</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>44</v>
@@ -20183,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK137" s="3" t="s">
         <v>44</v>
@@ -20195,7 +20204,7 @@
         <v>44</v>
       </c>
       <c r="AN137" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AO137" s="3" t="s">
         <v>44</v>
@@ -20224,7 +20233,7 @@
         <v>42</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>44</v>
@@ -20236,10 +20245,10 @@
         <v>44</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>44</v>
@@ -20329,7 +20338,7 @@
         <v>44</v>
       </c>
       <c r="AN138" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO138" s="3" t="s">
         <v>44</v>
@@ -20358,7 +20367,7 @@
         <v>43</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>44</v>
@@ -20370,10 +20379,10 @@
         <v>44</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>44</v>
@@ -20448,7 +20457,7 @@
         <v>163.8</v>
       </c>
       <c r="AI139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ139" s="2" t="s">
         <v>44</v>
@@ -20463,7 +20472,7 @@
         <v>44</v>
       </c>
       <c r="AN139" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO139" s="2" t="s">
         <v>44</v>
@@ -20492,22 +20501,22 @@
         <v>43</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J140" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>44</v>
@@ -20585,7 +20594,7 @@
         <v>44</v>
       </c>
       <c r="AJ140" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK140" s="3" t="s">
         <v>44</v>
@@ -20597,7 +20606,7 @@
         <v>44</v>
       </c>
       <c r="AN140" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AO140" s="3" t="s">
         <v>44</v>
@@ -20626,7 +20635,7 @@
         <v>43</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>44</v>
@@ -20638,10 +20647,10 @@
         <v>44</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>44</v>
@@ -20716,7 +20725,7 @@
         <v>327.66</v>
       </c>
       <c r="AI141" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AJ141" s="2" t="s">
         <v>44</v>
@@ -20731,7 +20740,7 @@
         <v>44</v>
       </c>
       <c r="AN141" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AO141" s="2" t="s">
         <v>44</v>
@@ -20760,7 +20769,7 @@
         <v>43</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>44</v>
@@ -20772,10 +20781,10 @@
         <v>44</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>44</v>
@@ -20853,7 +20862,7 @@
         <v>44</v>
       </c>
       <c r="AJ142" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AK142" s="2" t="s">
         <v>44</v>
@@ -20894,22 +20903,22 @@
         <v>43</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>44</v>
@@ -20987,7 +20996,7 @@
         <v>44</v>
       </c>
       <c r="AJ143" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK143" s="3" t="s">
         <v>44</v>
@@ -21028,7 +21037,7 @@
         <v>43</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>44</v>
@@ -21040,10 +21049,10 @@
         <v>44</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>44</v>
@@ -21121,7 +21130,7 @@
         <v>44</v>
       </c>
       <c r="AJ144" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK144" s="3" t="s">
         <v>44</v>
@@ -21162,7 +21171,7 @@
         <v>43</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>44</v>
@@ -21174,10 +21183,10 @@
         <v>44</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>44</v>
@@ -21255,7 +21264,7 @@
         <v>44</v>
       </c>
       <c r="AJ145" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK145" s="3" t="s">
         <v>44</v>
@@ -21296,7 +21305,7 @@
         <v>43</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>44</v>
@@ -21308,10 +21317,10 @@
         <v>44</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>44</v>
@@ -21386,7 +21395,7 @@
         <v>25.5</v>
       </c>
       <c r="AI146" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ146" s="3" t="s">
         <v>44</v>
@@ -21430,7 +21439,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>44</v>
@@ -21442,10 +21451,10 @@
         <v>44</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>44</v>
@@ -21523,7 +21532,7 @@
         <v>44</v>
       </c>
       <c r="AJ147" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK147" s="2" t="s">
         <v>44</v>
@@ -21564,22 +21573,22 @@
         <v>43</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I148" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="J148" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>44</v>
@@ -21657,7 +21666,7 @@
         <v>44</v>
       </c>
       <c r="AJ148" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK148" s="3" t="s">
         <v>44</v>
@@ -21698,22 +21707,22 @@
         <v>43</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>44</v>
@@ -21832,7 +21841,7 @@
         <v>43</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>44</v>
@@ -21844,10 +21853,10 @@
         <v>44</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>44</v>
@@ -21922,7 +21931,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI150" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ150" s="3" t="s">
         <v>44</v>
@@ -21966,7 +21975,7 @@
         <v>43</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>44</v>
@@ -21978,10 +21987,10 @@
         <v>44</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>44</v>
@@ -22056,7 +22065,7 @@
         <v>204.8</v>
       </c>
       <c r="AI151" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ151" s="3" t="s">
         <v>44</v>
@@ -22100,7 +22109,7 @@
         <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>44</v>
@@ -22112,10 +22121,10 @@
         <v>44</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>44</v>
@@ -22190,7 +22199,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI152" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ152" s="3" t="s">
         <v>44</v>
@@ -22234,7 +22243,7 @@
         <v>43</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>44</v>
@@ -22246,10 +22255,10 @@
         <v>44</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K153" s="3" t="s">
         <v>44</v>
@@ -22324,7 +22333,7 @@
         <v>204.8</v>
       </c>
       <c r="AI153" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ153" s="3" t="s">
         <v>44</v>
@@ -22365,10 +22374,10 @@
         <v>43</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>44</v>
@@ -22380,10 +22389,10 @@
         <v>44</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>44</v>
@@ -22499,25 +22508,25 @@
         <v>43</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="J155" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>44</v>
@@ -22595,7 +22604,7 @@
         <v>44</v>
       </c>
       <c r="AJ155" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK155" s="3" t="s">
         <v>44</v>
@@ -22636,22 +22645,22 @@
         <v>42</v>
       </c>
       <c r="E156" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J156" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>44</v>
@@ -22770,7 +22779,7 @@
         <v>42</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>44</v>
@@ -22782,10 +22791,10 @@
         <v>44</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>44</v>
@@ -22860,7 +22869,7 @@
         <v>25.5</v>
       </c>
       <c r="AI157" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ157" s="3" t="s">
         <v>44</v>
@@ -22904,7 +22913,7 @@
         <v>42</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>44</v>
@@ -22916,10 +22925,10 @@
         <v>44</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>44</v>
@@ -23009,7 +23018,7 @@
         <v>44</v>
       </c>
       <c r="AN158" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AO158" s="2" t="s">
         <v>44</v>
@@ -23038,22 +23047,22 @@
         <v>42</v>
       </c>
       <c r="E159" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="J159" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>44</v>
@@ -23143,7 +23152,7 @@
         <v>44</v>
       </c>
       <c r="AN159" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO159" s="3" t="s">
         <v>44</v>
@@ -23172,7 +23181,7 @@
         <v>42</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>44</v>
@@ -23184,10 +23193,10 @@
         <v>44</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>44</v>
@@ -23277,7 +23286,7 @@
         <v>44</v>
       </c>
       <c r="AN160" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO160" s="3" t="s">
         <v>44</v>
@@ -23306,7 +23315,7 @@
         <v>42</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>44</v>
@@ -23318,10 +23327,10 @@
         <v>44</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>44</v>
@@ -23411,7 +23420,7 @@
         <v>44</v>
       </c>
       <c r="AN161" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AO161" s="3" t="s">
         <v>44</v>
@@ -23440,7 +23449,7 @@
         <v>57</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>44</v>
@@ -23452,10 +23461,10 @@
         <v>44</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>44</v>
@@ -23530,7 +23539,7 @@
         <v>255</v>
       </c>
       <c r="AI162" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ162" s="2" t="s">
         <v>44</v>
@@ -23545,7 +23554,7 @@
         <v>44</v>
       </c>
       <c r="AN162" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AO162" s="2" t="s">
         <v>44</v>
@@ -23574,7 +23583,7 @@
         <v>42</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>44</v>
@@ -23586,10 +23595,10 @@
         <v>44</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>44</v>
@@ -23679,7 +23688,7 @@
         <v>44</v>
       </c>
       <c r="AN163" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AO163" s="3" t="s">
         <v>44</v>
@@ -23708,7 +23717,7 @@
         <v>42</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>44</v>
@@ -23720,10 +23729,10 @@
         <v>44</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>44</v>
@@ -23813,7 +23822,7 @@
         <v>44</v>
       </c>
       <c r="AN164" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO164" s="3" t="s">
         <v>44</v>
@@ -23842,7 +23851,7 @@
         <v>42</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>44</v>
@@ -23854,10 +23863,10 @@
         <v>44</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>44</v>
@@ -23935,7 +23944,7 @@
         <v>44</v>
       </c>
       <c r="AJ165" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AK165" s="2" t="s">
         <v>44</v>
@@ -23947,7 +23956,7 @@
         <v>44</v>
       </c>
       <c r="AN165" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AO165" s="2" t="s">
         <v>44</v>
@@ -23976,7 +23985,7 @@
         <v>57</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>44</v>
@@ -23988,10 +23997,10 @@
         <v>44</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>44</v>
@@ -24066,13 +24075,13 @@
         <v>63.5</v>
       </c>
       <c r="AI166" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AJ166" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AK166" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL166" s="3" t="s">
         <v>44</v>
@@ -24081,7 +24090,7 @@
         <v>44</v>
       </c>
       <c r="AN166" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AO166" s="3" t="s">
         <v>44</v>
@@ -24110,7 +24119,7 @@
         <v>57</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>44</v>
@@ -24122,10 +24131,10 @@
         <v>44</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>44</v>
@@ -24200,13 +24209,13 @@
         <v>63.75</v>
       </c>
       <c r="AI167" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ167" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AK167" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL167" s="3" t="s">
         <v>44</v>
@@ -24215,7 +24224,7 @@
         <v>44</v>
       </c>
       <c r="AN167" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO167" s="3" t="s">
         <v>44</v>
@@ -24244,7 +24253,7 @@
         <v>57</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>44</v>
@@ -24256,10 +24265,10 @@
         <v>44</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K168" s="3" t="s">
         <v>44</v>
@@ -24340,7 +24349,7 @@
         <v>44</v>
       </c>
       <c r="AK168" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL168" s="3" t="s">
         <v>44</v>
@@ -24349,7 +24358,7 @@
         <v>44</v>
       </c>
       <c r="AN168" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AO168" s="3" t="s">
         <v>44</v>
@@ -24378,7 +24387,7 @@
         <v>57</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>44</v>
@@ -24390,10 +24399,10 @@
         <v>44</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>44</v>
@@ -24468,13 +24477,13 @@
         <v>1138.2</v>
       </c>
       <c r="AI169" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ169" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AK169" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL169" s="3" t="s">
         <v>44</v>
@@ -24483,7 +24492,7 @@
         <v>44</v>
       </c>
       <c r="AN169" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO169" s="3" t="s">
         <v>44</v>
@@ -24512,7 +24521,7 @@
         <v>57</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>44</v>
@@ -24524,10 +24533,10 @@
         <v>44</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>44</v>
@@ -24602,13 +24611,13 @@
         <v>127.75</v>
       </c>
       <c r="AI170" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ170" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AK170" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL170" s="3" t="s">
         <v>44</v>
@@ -24617,7 +24626,7 @@
         <v>44</v>
       </c>
       <c r="AN170" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AO170" s="3" t="s">
         <v>44</v>
@@ -24646,7 +24655,7 @@
         <v>57</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>44</v>
@@ -24658,10 +24667,10 @@
         <v>44</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K171" s="3" t="s">
         <v>44</v>
@@ -24736,13 +24745,13 @@
         <v>204.8</v>
       </c>
       <c r="AI171" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ171" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AK171" s="3" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL171" s="3" t="s">
         <v>44</v>
@@ -24751,7 +24760,7 @@
         <v>44</v>
       </c>
       <c r="AN171" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AO171" s="3" t="s">
         <v>44</v>
@@ -24777,10 +24786,10 @@
         <v>43</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>44</v>
@@ -24792,10 +24801,10 @@
         <v>44</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>44</v>
@@ -24873,7 +24882,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AK172" s="2" t="s">
         <v>44</v>
@@ -24911,25 +24920,25 @@
         <v>43</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E173" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="J173" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>44</v>
@@ -25007,7 +25016,7 @@
         <v>44</v>
       </c>
       <c r="AJ173" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AK173" s="3" t="s">
         <v>44</v>
@@ -25048,7 +25057,7 @@
         <v>42</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>44</v>
@@ -25060,10 +25069,10 @@
         <v>44</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K174" s="3" t="s">
         <v>44</v>
@@ -25153,7 +25162,7 @@
         <v>44</v>
       </c>
       <c r="AN174" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AO174" s="3" t="s">
         <v>44</v>
@@ -25182,7 +25191,7 @@
         <v>42</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>44</v>
@@ -25194,10 +25203,10 @@
         <v>44</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K175" s="3" t="s">
         <v>44</v>
@@ -25287,7 +25296,7 @@
         <v>44</v>
       </c>
       <c r="AN175" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AO175" s="3" t="s">
         <v>44</v>
@@ -25316,7 +25325,7 @@
         <v>42</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>44</v>
@@ -25328,10 +25337,10 @@
         <v>44</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K176" s="3" t="s">
         <v>44</v>
@@ -25421,7 +25430,7 @@
         <v>44</v>
       </c>
       <c r="AN176" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO176" s="3" t="s">
         <v>44</v>
@@ -25450,7 +25459,7 @@
         <v>42</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>44</v>
@@ -25462,10 +25471,10 @@
         <v>44</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>44</v>
@@ -25540,10 +25549,10 @@
         <v>7</v>
       </c>
       <c r="AI177" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ177" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AK177" s="2" t="s">
         <v>44</v>
@@ -25555,7 +25564,7 @@
         <v>44</v>
       </c>
       <c r="AN177" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AO177" s="2" t="s">
         <v>44</v>
@@ -25584,22 +25593,22 @@
         <v>42</v>
       </c>
       <c r="E178" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="J178" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>44</v>
@@ -25674,7 +25683,7 @@
         <v>63.75</v>
       </c>
       <c r="AI178" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ178" s="3" t="s">
         <v>44</v>
@@ -25689,7 +25698,7 @@
         <v>44</v>
       </c>
       <c r="AN178" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AO178" s="3" t="s">
         <v>44</v>
@@ -25718,7 +25727,7 @@
         <v>42</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>44</v>
@@ -25730,10 +25739,10 @@
         <v>44</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>44</v>
@@ -25808,7 +25817,7 @@
         <v>63.5</v>
       </c>
       <c r="AI179" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AJ179" s="3" t="s">
         <v>44</v>
@@ -25823,7 +25832,7 @@
         <v>44</v>
       </c>
       <c r="AN179" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AO179" s="3" t="s">
         <v>44</v>
@@ -25852,7 +25861,7 @@
         <v>42</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>44</v>
@@ -25864,10 +25873,10 @@
         <v>44</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K180" s="3" t="s">
         <v>44</v>
@@ -25942,7 +25951,7 @@
         <v>1138.2</v>
       </c>
       <c r="AI180" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ180" s="3" t="s">
         <v>44</v>
@@ -25957,7 +25966,7 @@
         <v>44</v>
       </c>
       <c r="AN180" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AO180" s="3" t="s">
         <v>44</v>
@@ -25986,7 +25995,7 @@
         <v>42</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>44</v>
@@ -25998,10 +26007,10 @@
         <v>44</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>44</v>
@@ -26076,7 +26085,7 @@
         <v>255</v>
       </c>
       <c r="AI181" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ181" s="3" t="s">
         <v>44</v>
@@ -26091,7 +26100,7 @@
         <v>44</v>
       </c>
       <c r="AN181" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AO181" s="3" t="s">
         <v>44</v>
@@ -26120,7 +26129,7 @@
         <v>42</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>44</v>
@@ -26132,10 +26141,10 @@
         <v>44</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K182" s="3" t="s">
         <v>44</v>
@@ -26210,7 +26219,7 @@
         <v>127.75</v>
       </c>
       <c r="AI182" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ182" s="3" t="s">
         <v>44</v>
@@ -26225,7 +26234,7 @@
         <v>44</v>
       </c>
       <c r="AN182" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO182" s="3" t="s">
         <v>44</v>
@@ -26254,7 +26263,7 @@
         <v>42</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>44</v>
@@ -26266,10 +26275,10 @@
         <v>44</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K183" s="3" t="s">
         <v>44</v>
@@ -26344,7 +26353,7 @@
         <v>102.3</v>
       </c>
       <c r="AI183" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ183" s="3" t="s">
         <v>44</v>
@@ -26359,7 +26368,7 @@
         <v>44</v>
       </c>
       <c r="AN183" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AO183" s="3" t="s">
         <v>44</v>
@@ -26388,7 +26397,7 @@
         <v>42</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>44</v>
@@ -26400,10 +26409,10 @@
         <v>44</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>44</v>
@@ -26478,7 +26487,7 @@
         <v>255</v>
       </c>
       <c r="AI184" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ184" s="2" t="s">
         <v>44</v>
@@ -26493,7 +26502,7 @@
         <v>44</v>
       </c>
       <c r="AN184" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AO184" s="2" t="s">
         <v>44</v>
@@ -26522,7 +26531,7 @@
         <v>42</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>44</v>
@@ -26534,10 +26543,10 @@
         <v>44</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K185" s="3" t="s">
         <v>44</v>
@@ -26612,10 +26621,10 @@
         <v>31</v>
       </c>
       <c r="AI185" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ185" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK185" s="3" t="s">
         <v>44</v>
@@ -26627,7 +26636,7 @@
         <v>44</v>
       </c>
       <c r="AN185" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AO185" s="3" t="s">
         <v>44</v>
@@ -26656,22 +26665,22 @@
         <v>42</v>
       </c>
       <c r="E186" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J186" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>44</v>
@@ -26749,7 +26758,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AK186" s="3" t="s">
         <v>44</v>
@@ -26761,7 +26770,7 @@
         <v>44</v>
       </c>
       <c r="AN186" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AO186" s="3" t="s">
         <v>44</v>
@@ -26790,7 +26799,7 @@
         <v>42</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>44</v>
@@ -26802,10 +26811,10 @@
         <v>44</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>44</v>
@@ -26880,10 +26889,10 @@
         <v>31</v>
       </c>
       <c r="AI187" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ187" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK187" s="3" t="s">
         <v>44</v>
@@ -26895,7 +26904,7 @@
         <v>44</v>
       </c>
       <c r="AN187" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AO187" s="3" t="s">
         <v>44</v>
@@ -26924,7 +26933,7 @@
         <v>42</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>44</v>
@@ -26936,10 +26945,10 @@
         <v>44</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>44</v>
@@ -27014,10 +27023,10 @@
         <v>31</v>
       </c>
       <c r="AI188" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ188" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK188" s="3" t="s">
         <v>44</v>
@@ -27029,7 +27038,7 @@
         <v>44</v>
       </c>
       <c r="AN188" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AO188" s="3" t="s">
         <v>44</v>
@@ -27058,7 +27067,7 @@
         <v>42</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>44</v>
@@ -27070,10 +27079,10 @@
         <v>44</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>44</v>
@@ -27148,10 +27157,10 @@
         <v>31</v>
       </c>
       <c r="AI189" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ189" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK189" s="3" t="s">
         <v>44</v>
@@ -27163,7 +27172,7 @@
         <v>44</v>
       </c>
       <c r="AN189" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AO189" s="3" t="s">
         <v>44</v>
@@ -27192,7 +27201,7 @@
         <v>42</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>44</v>
@@ -27204,10 +27213,10 @@
         <v>44</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>44</v>
@@ -27297,7 +27306,7 @@
         <v>44</v>
       </c>
       <c r="AN190" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AO190" s="3" t="s">
         <v>44</v>
@@ -27326,7 +27335,7 @@
         <v>42</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>44</v>
@@ -27338,10 +27347,10 @@
         <v>44</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>44</v>
@@ -27416,10 +27425,10 @@
         <v>7</v>
       </c>
       <c r="AI191" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ191" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AK191" s="3" t="s">
         <v>44</v>
@@ -27431,7 +27440,7 @@
         <v>44</v>
       </c>
       <c r="AN191" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AO191" s="3" t="s">
         <v>44</v>
